--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Videos\TTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6BA980-AE5E-41ED-B69B-0501C464708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B8E889-8FE9-4EFA-971C-0BACD69ACF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="540" windowWidth="19275" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TTH2SP.exe" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="847">
   <si>
     <t>0x0</t>
   </si>
@@ -2379,6 +2379,438 @@
   </si>
   <si>
     <t>雪魄精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大砍刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斬馬刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水月刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斷腸刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓月彎刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳舞刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅煞刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠龍刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空幻刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃金刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化血神刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛鳳刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄天梵刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍骨寶刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西域古刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渾元破浪刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚魂攝魄刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薇伏龍刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神的小刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環山大砍刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王菜刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血刀狼牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀刀連邪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斷刃狂刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漆黑的魔刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神刃巨靈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盤古大刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃木劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古銅重劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲英劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金陵劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻陰劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛雲劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙雨劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩儀追星劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太極劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒天劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修羅劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈燄魔劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴛鴦劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天閥劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於魁五毒劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盤古軒轅劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍泉寶劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九州封神劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘋神的短劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禪那王魂劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六妖蛇劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古劍神兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移花宮短劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙劍飛去來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古劍太虛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南天鏽劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軟鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎尾鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一節鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馴獸鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍麟鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打神鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連珠雙鐵鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼牙鳳翼鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無影鎖喉鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼見愁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天王連環打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂神的紙鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誅仙寶弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀弓寒月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇櫻機關弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇櫻雷火弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇櫻龍炮弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水火投射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床子弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三槍破陣弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長鞭狂風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禪妖勾魂鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神農打榖鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉皇降魔鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討魔大刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐妖劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長弓月流星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血河鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅蘇櫻可見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅蘇櫻可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2416,12 +2848,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2436,12 +2874,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2748,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G743"/>
+  <dimension ref="A1:I743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="K466" sqref="K466"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="J413" sqref="J413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2762,7 +3203,8 @@
     <col min="4" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6235,6 +6677,9 @@
       <c r="B174" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C174" s="1" t="s">
+        <v>739</v>
+      </c>
       <c r="D174" s="1" t="s">
         <v>584</v>
       </c>
@@ -6255,6 +6700,9 @@
       <c r="B175" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C175" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="D175" s="1" t="s">
         <v>584</v>
       </c>
@@ -6275,6 +6723,9 @@
       <c r="B176" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C176" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="D176" s="1" t="s">
         <v>584</v>
       </c>
@@ -6295,6 +6746,9 @@
       <c r="B177" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C177" s="1" t="s">
+        <v>742</v>
+      </c>
       <c r="D177" s="1" t="s">
         <v>584</v>
       </c>
@@ -6315,6 +6769,9 @@
       <c r="B178" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C178" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="D178" s="1" t="s">
         <v>584</v>
       </c>
@@ -6335,6 +6792,9 @@
       <c r="B179" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C179" s="1" t="s">
+        <v>744</v>
+      </c>
       <c r="D179" s="1" t="s">
         <v>584</v>
       </c>
@@ -6355,6 +6815,9 @@
       <c r="B180" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C180" s="1" t="s">
+        <v>745</v>
+      </c>
       <c r="D180" s="1" t="s">
         <v>584</v>
       </c>
@@ -6375,6 +6838,9 @@
       <c r="B181" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C181" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="D181" s="1" t="s">
         <v>584</v>
       </c>
@@ -6395,6 +6861,9 @@
       <c r="B182" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C182" s="1" t="s">
+        <v>747</v>
+      </c>
       <c r="D182" s="1" t="s">
         <v>584</v>
       </c>
@@ -6415,6 +6884,9 @@
       <c r="B183" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C183" s="1" t="s">
+        <v>748</v>
+      </c>
       <c r="D183" s="1" t="s">
         <v>584</v>
       </c>
@@ -6435,6 +6907,9 @@
       <c r="B184" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C184" s="1" t="s">
+        <v>749</v>
+      </c>
       <c r="D184" s="1" t="s">
         <v>584</v>
       </c>
@@ -6455,6 +6930,9 @@
       <c r="B185" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C185" s="1" t="s">
+        <v>755</v>
+      </c>
       <c r="D185" s="1" t="s">
         <v>584</v>
       </c>
@@ -6475,6 +6953,9 @@
       <c r="B186" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C186" s="1" t="s">
+        <v>750</v>
+      </c>
       <c r="D186" s="1" t="s">
         <v>584</v>
       </c>
@@ -6495,6 +6976,9 @@
       <c r="B187" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C187" s="1" t="s">
+        <v>751</v>
+      </c>
       <c r="D187" s="1" t="s">
         <v>584</v>
       </c>
@@ -6515,6 +6999,9 @@
       <c r="B188" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C188" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="D188" s="1" t="s">
         <v>584</v>
       </c>
@@ -6535,6 +7022,9 @@
       <c r="B189" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C189" s="1" t="s">
+        <v>753</v>
+      </c>
       <c r="D189" s="1" t="s">
         <v>584</v>
       </c>
@@ -6555,6 +7045,9 @@
       <c r="B190" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C190" s="1" t="s">
+        <v>754</v>
+      </c>
       <c r="D190" s="1" t="s">
         <v>584</v>
       </c>
@@ -6575,6 +7068,9 @@
       <c r="B191" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C191" s="1" t="s">
+        <v>756</v>
+      </c>
       <c r="D191" s="1" t="s">
         <v>584</v>
       </c>
@@ -6595,6 +7091,9 @@
       <c r="B192" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C192" s="1" t="s">
+        <v>757</v>
+      </c>
       <c r="D192" s="1" t="s">
         <v>584</v>
       </c>
@@ -6615,6 +7114,9 @@
       <c r="B193" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C193" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="D193" s="1" t="s">
         <v>584</v>
       </c>
@@ -6635,6 +7137,9 @@
       <c r="B194" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C194" s="1" t="s">
+        <v>759</v>
+      </c>
       <c r="D194" s="1" t="s">
         <v>584</v>
       </c>
@@ -6655,6 +7160,9 @@
       <c r="B195" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C195" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D195" s="1" t="s">
         <v>584</v>
       </c>
@@ -6675,6 +7183,9 @@
       <c r="B196" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C196" s="1" t="s">
+        <v>761</v>
+      </c>
       <c r="D196" s="1" t="s">
         <v>584</v>
       </c>
@@ -6695,6 +7206,9 @@
       <c r="B197" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C197" s="1" t="s">
+        <v>762</v>
+      </c>
       <c r="D197" s="1" t="s">
         <v>584</v>
       </c>
@@ -6715,6 +7229,9 @@
       <c r="B198" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C198" s="1" t="s">
+        <v>763</v>
+      </c>
       <c r="D198" s="1" t="s">
         <v>584</v>
       </c>
@@ -6735,6 +7252,9 @@
       <c r="B199" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C199" s="1" t="s">
+        <v>764</v>
+      </c>
       <c r="D199" s="1" t="s">
         <v>584</v>
       </c>
@@ -6755,6 +7275,9 @@
       <c r="B200" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C200" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="D200" s="1" t="s">
         <v>584</v>
       </c>
@@ -6775,6 +7298,9 @@
       <c r="B201" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C201" s="1" t="s">
+        <v>766</v>
+      </c>
       <c r="D201" s="1" t="s">
         <v>584</v>
       </c>
@@ -6795,6 +7321,9 @@
       <c r="B202" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C202" s="1" t="s">
+        <v>767</v>
+      </c>
       <c r="D202" s="1" t="s">
         <v>584</v>
       </c>
@@ -6815,6 +7344,9 @@
       <c r="B203" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C203" s="1" t="s">
+        <v>768</v>
+      </c>
       <c r="D203" s="1" t="s">
         <v>584</v>
       </c>
@@ -6835,6 +7367,9 @@
       <c r="B204" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C204" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="D204" s="1" t="s">
         <v>584</v>
       </c>
@@ -6855,6 +7390,9 @@
       <c r="B205" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C205" s="1" t="s">
+        <v>770</v>
+      </c>
       <c r="D205" s="1" t="s">
         <v>584</v>
       </c>
@@ -6875,6 +7413,9 @@
       <c r="B206" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C206" s="1" t="s">
+        <v>771</v>
+      </c>
       <c r="D206" s="1" t="s">
         <v>584</v>
       </c>
@@ -6895,6 +7436,9 @@
       <c r="B207" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C207" s="1" t="s">
+        <v>772</v>
+      </c>
       <c r="D207" s="1" t="s">
         <v>584</v>
       </c>
@@ -6915,6 +7459,9 @@
       <c r="B208" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C208" s="1" t="s">
+        <v>773</v>
+      </c>
       <c r="D208" s="1" t="s">
         <v>584</v>
       </c>
@@ -6935,6 +7482,9 @@
       <c r="B209" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C209" s="1" t="s">
+        <v>774</v>
+      </c>
       <c r="D209" s="1" t="s">
         <v>584</v>
       </c>
@@ -6955,6 +7505,9 @@
       <c r="B210" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C210" s="1" t="s">
+        <v>775</v>
+      </c>
       <c r="D210" s="1" t="s">
         <v>584</v>
       </c>
@@ -6975,6 +7528,9 @@
       <c r="B211" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C211" s="1" t="s">
+        <v>776</v>
+      </c>
       <c r="D211" s="1" t="s">
         <v>584</v>
       </c>
@@ -6995,6 +7551,9 @@
       <c r="B212" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C212" s="1" t="s">
+        <v>777</v>
+      </c>
       <c r="D212" s="1" t="s">
         <v>584</v>
       </c>
@@ -7015,6 +7574,9 @@
       <c r="B213" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C213" s="1" t="s">
+        <v>778</v>
+      </c>
       <c r="D213" s="1" t="s">
         <v>584</v>
       </c>
@@ -7035,6 +7597,9 @@
       <c r="B214" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C214" s="1" t="s">
+        <v>779</v>
+      </c>
       <c r="D214" s="1" t="s">
         <v>584</v>
       </c>
@@ -7055,6 +7620,9 @@
       <c r="B215" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C215" s="1" t="s">
+        <v>780</v>
+      </c>
       <c r="D215" s="1" t="s">
         <v>584</v>
       </c>
@@ -7075,6 +7643,9 @@
       <c r="B216" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C216" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="D216" s="1" t="s">
         <v>584</v>
       </c>
@@ -7095,6 +7666,9 @@
       <c r="B217" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C217" s="1" t="s">
+        <v>782</v>
+      </c>
       <c r="D217" s="1" t="s">
         <v>584</v>
       </c>
@@ -7115,6 +7689,9 @@
       <c r="B218" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C218" s="1" t="s">
+        <v>783</v>
+      </c>
       <c r="D218" s="1" t="s">
         <v>584</v>
       </c>
@@ -7135,6 +7712,9 @@
       <c r="B219" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C219" s="1" t="s">
+        <v>784</v>
+      </c>
       <c r="D219" s="1" t="s">
         <v>584</v>
       </c>
@@ -7155,6 +7735,9 @@
       <c r="B220" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C220" s="1" t="s">
+        <v>785</v>
+      </c>
       <c r="D220" s="1" t="s">
         <v>584</v>
       </c>
@@ -7175,6 +7758,9 @@
       <c r="B221" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C221" s="1" t="s">
+        <v>786</v>
+      </c>
       <c r="D221" s="1" t="s">
         <v>584</v>
       </c>
@@ -7195,6 +7781,9 @@
       <c r="B222" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C222" s="1" t="s">
+        <v>787</v>
+      </c>
       <c r="D222" s="1" t="s">
         <v>584</v>
       </c>
@@ -7215,6 +7804,9 @@
       <c r="B223" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C223" s="1" t="s">
+        <v>788</v>
+      </c>
       <c r="D223" s="1" t="s">
         <v>584</v>
       </c>
@@ -7235,6 +7827,9 @@
       <c r="B224" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C224" s="3" t="s">
+        <v>789</v>
+      </c>
       <c r="D224" s="1" t="s">
         <v>584</v>
       </c>
@@ -7255,6 +7850,9 @@
       <c r="B225" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C225" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="D225" s="1" t="s">
         <v>584</v>
       </c>
@@ -7275,6 +7873,9 @@
       <c r="B226" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C226" s="1" t="s">
+        <v>791</v>
+      </c>
       <c r="D226" s="1" t="s">
         <v>584</v>
       </c>
@@ -7295,6 +7896,9 @@
       <c r="B227" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C227" s="1" t="s">
+        <v>792</v>
+      </c>
       <c r="D227" s="1" t="s">
         <v>584</v>
       </c>
@@ -7315,6 +7919,9 @@
       <c r="B228" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C228" s="1" t="s">
+        <v>793</v>
+      </c>
       <c r="D228" s="1" t="s">
         <v>584</v>
       </c>
@@ -7335,6 +7942,9 @@
       <c r="B229" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C229" s="1" t="s">
+        <v>794</v>
+      </c>
       <c r="D229" s="1" t="s">
         <v>584</v>
       </c>
@@ -7355,6 +7965,9 @@
       <c r="B230" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C230" s="3" t="s">
+        <v>795</v>
+      </c>
       <c r="D230" s="1" t="s">
         <v>584</v>
       </c>
@@ -7375,6 +7988,9 @@
       <c r="B231" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C231" s="1" t="s">
+        <v>796</v>
+      </c>
       <c r="D231" s="1" t="s">
         <v>584</v>
       </c>
@@ -7395,6 +8011,9 @@
       <c r="B232" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C232" s="1" t="s">
+        <v>797</v>
+      </c>
       <c r="D232" s="1" t="s">
         <v>584</v>
       </c>
@@ -7415,6 +8034,9 @@
       <c r="B233" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C233" s="1" t="s">
+        <v>798</v>
+      </c>
       <c r="D233" s="1" t="s">
         <v>584</v>
       </c>
@@ -7435,6 +8057,9 @@
       <c r="B234" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C234" s="1" t="s">
+        <v>799</v>
+      </c>
       <c r="D234" s="1" t="s">
         <v>584</v>
       </c>
@@ -7455,6 +8080,9 @@
       <c r="B235" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C235" s="1" t="s">
+        <v>800</v>
+      </c>
       <c r="D235" s="1" t="s">
         <v>584</v>
       </c>
@@ -7475,6 +8103,9 @@
       <c r="B236" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C236" s="1" t="s">
+        <v>801</v>
+      </c>
       <c r="D236" s="1" t="s">
         <v>584</v>
       </c>
@@ -7495,6 +8126,9 @@
       <c r="B237" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C237" s="1" t="s">
+        <v>802</v>
+      </c>
       <c r="D237" s="1" t="s">
         <v>584</v>
       </c>
@@ -7515,6 +8149,9 @@
       <c r="B238" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C238" s="1" t="s">
+        <v>803</v>
+      </c>
       <c r="D238" s="1" t="s">
         <v>584</v>
       </c>
@@ -7535,6 +8172,9 @@
       <c r="B239" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C239" s="1" t="s">
+        <v>804</v>
+      </c>
       <c r="D239" s="1" t="s">
         <v>584</v>
       </c>
@@ -7555,6 +8195,9 @@
       <c r="B240" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C240" s="1" t="s">
+        <v>805</v>
+      </c>
       <c r="D240" s="1" t="s">
         <v>584</v>
       </c>
@@ -7568,13 +8211,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:9">
       <c r="A241" s="1">
         <v>1</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C241" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="D241" s="1" t="s">
         <v>584</v>
       </c>
@@ -7588,13 +8234,16 @@
         <v>69</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:9">
       <c r="A242" s="1">
         <v>1</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C242" s="1" t="s">
+        <v>807</v>
+      </c>
       <c r="D242" s="1" t="s">
         <v>584</v>
       </c>
@@ -7608,13 +8257,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:9">
       <c r="A243" s="1">
         <v>1</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C243" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="D243" s="1" t="s">
         <v>584</v>
       </c>
@@ -7628,13 +8280,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:9">
       <c r="A244" s="1">
         <v>1</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C244" s="1" t="s">
+        <v>809</v>
+      </c>
       <c r="D244" s="1" t="s">
         <v>584</v>
       </c>
@@ -7648,13 +8303,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:9">
       <c r="A245" s="1">
         <v>1</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C245" s="1" t="s">
+        <v>810</v>
+      </c>
       <c r="D245" s="1" t="s">
         <v>584</v>
       </c>
@@ -7668,13 +8326,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:9">
       <c r="A246" s="1">
         <v>1</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C246" s="1" t="s">
+        <v>811</v>
+      </c>
       <c r="D246" s="1" t="s">
         <v>584</v>
       </c>
@@ -7688,13 +8349,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:9">
       <c r="A247" s="1">
         <v>1</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C247" s="1" t="s">
+        <v>812</v>
+      </c>
       <c r="D247" s="1" t="s">
         <v>584</v>
       </c>
@@ -7708,13 +8372,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:9">
       <c r="A248" s="1">
         <v>1</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C248" s="1" t="s">
+        <v>813</v>
+      </c>
       <c r="D248" s="1" t="s">
         <v>584</v>
       </c>
@@ -7728,13 +8395,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:9">
       <c r="A249" s="1">
         <v>1</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C249" s="1" t="s">
+        <v>814</v>
+      </c>
       <c r="D249" s="1" t="s">
         <v>584</v>
       </c>
@@ -7748,13 +8418,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:9">
       <c r="A250" s="1">
         <v>1</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C250" s="1" t="s">
+        <v>815</v>
+      </c>
       <c r="D250" s="1" t="s">
         <v>584</v>
       </c>
@@ -7768,13 +8441,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:9">
       <c r="A251" s="1">
         <v>1</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C251" s="1" t="s">
+        <v>816</v>
+      </c>
       <c r="D251" s="1" t="s">
         <v>584</v>
       </c>
@@ -7788,12 +8464,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:9">
       <c r="A252" s="1">
         <v>1</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>572</v>
+        <v>640</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>584</v>
@@ -7807,8 +8486,14 @@
       <c r="G252" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -7828,7 +8513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:9">
       <c r="A254" s="1">
         <v>1</v>
       </c>
@@ -7848,7 +8533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:9">
       <c r="A255" s="1">
         <v>1</v>
       </c>
@@ -7868,7 +8553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:9">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -9884,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>688</v>
@@ -9907,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>689</v>
@@ -9930,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>698</v>
@@ -9953,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>690</v>
@@ -9976,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>691</v>
@@ -9999,7 +10684,7 @@
         <v>1</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>692</v>
@@ -10022,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>693</v>
@@ -10045,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>694</v>
@@ -10068,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>695</v>
@@ -10091,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>696</v>
@@ -10114,7 +10799,7 @@
         <v>1</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>697</v>
@@ -10137,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>699</v>
@@ -10160,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>700</v>
@@ -10183,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>701</v>
@@ -10206,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>702</v>
@@ -10229,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>703</v>
@@ -10252,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>704</v>
@@ -10275,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>705</v>
@@ -10293,12 +10978,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:9">
       <c r="A369" s="1">
         <v>1</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>706</v>
@@ -10316,12 +11001,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:9">
       <c r="A370" s="1">
         <v>1</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>707</v>
@@ -10339,12 +11024,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:9">
       <c r="A371" s="1">
         <v>1</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>712</v>
@@ -10362,12 +11047,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:9">
       <c r="A372" s="1">
         <v>1</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>708</v>
@@ -10385,12 +11070,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:9">
       <c r="A373" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>709</v>
@@ -10407,13 +11092,19 @@
       <c r="G373" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="A374" s="1">
         <v>1</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>710</v>
@@ -10431,12 +11122,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:9">
       <c r="A375" s="1">
         <v>1</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>711</v>
@@ -10454,12 +11145,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:9">
       <c r="A376" s="1">
         <v>1</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>713</v>
@@ -10477,12 +11168,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:9">
       <c r="A377" s="1">
         <v>1</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>714</v>
@@ -10500,12 +11191,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:9">
       <c r="A378" s="1">
         <v>1</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>715</v>
@@ -10523,12 +11214,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:9">
       <c r="A379" s="1">
         <v>1</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>716</v>
@@ -10546,12 +11237,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:9">
       <c r="A380" s="1">
         <v>1</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>717</v>
@@ -10569,12 +11260,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:9">
       <c r="A381" s="1">
         <v>1</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>718</v>
@@ -10592,7 +11283,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:9">
       <c r="A382" s="1">
         <v>1</v>
       </c>
@@ -10612,7 +11303,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:9">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -10632,7 +11323,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:9">
       <c r="A384" s="1">
         <v>1</v>
       </c>
@@ -10652,7 +11343,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:9">
       <c r="A385" s="1">
         <v>1</v>
       </c>
@@ -10672,7 +11363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:9">
       <c r="A386" s="1">
         <v>1</v>
       </c>
@@ -10692,7 +11383,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:9">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -10712,7 +11403,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:9">
       <c r="A388" s="1">
         <v>1</v>
       </c>
@@ -10735,12 +11426,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:9">
       <c r="A389" s="1">
         <v>1</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>720</v>
@@ -10758,7 +11449,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:9">
       <c r="A390" s="1">
         <v>1</v>
       </c>
@@ -10781,7 +11472,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:9">
       <c r="A391" s="1">
         <v>1</v>
       </c>
@@ -10804,7 +11495,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:9">
       <c r="A392" s="1">
         <v>1</v>
       </c>
@@ -10827,12 +11518,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:9">
       <c r="A393" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>723</v>
@@ -10849,13 +11540,19 @@
       <c r="G393" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
       <c r="A394" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>723</v>
@@ -10872,13 +11569,19 @@
       <c r="G394" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
       <c r="A395" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>723</v>
@@ -10895,13 +11598,19 @@
       <c r="G395" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
       <c r="A396" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>723</v>
@@ -10918,13 +11627,19 @@
       <c r="G396" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
       <c r="A397" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>723</v>
@@ -10941,13 +11656,19 @@
       <c r="G397" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
       <c r="A398" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>723</v>
@@ -10964,13 +11685,19 @@
       <c r="G398" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
       <c r="A399" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>723</v>
@@ -10987,13 +11714,19 @@
       <c r="G399" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
       <c r="A400" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>723</v>
@@ -11010,13 +11743,19 @@
       <c r="G400" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
       <c r="A401" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>723</v>
@@ -11033,13 +11772,19 @@
       <c r="G401" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
       <c r="A402" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>723</v>
@@ -11056,13 +11801,19 @@
       <c r="G402" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
       <c r="A403" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>723</v>
@@ -11079,13 +11830,19 @@
       <c r="G403" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
       <c r="A404" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>723</v>
@@ -11102,13 +11859,19 @@
       <c r="G404" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
       <c r="A405" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>723</v>
@@ -11125,13 +11888,19 @@
       <c r="G405" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
       <c r="A406" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>723</v>
@@ -11148,13 +11917,19 @@
       <c r="G406" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
       <c r="A407" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>723</v>
@@ -11171,13 +11946,19 @@
       <c r="G407" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
       <c r="A408" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>723</v>
@@ -11194,13 +11975,19 @@
       <c r="G408" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
       <c r="A409" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>723</v>
@@ -11217,13 +12004,19 @@
       <c r="G409" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
       <c r="A410" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>723</v>
@@ -11240,13 +12033,19 @@
       <c r="G410" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
       <c r="A411" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>723</v>
@@ -11263,13 +12062,19 @@
       <c r="G411" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
       <c r="A412" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>723</v>
@@ -11286,13 +12091,19 @@
       <c r="G412" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
       <c r="A413" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>723</v>
@@ -11309,13 +12120,19 @@
       <c r="G413" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
       <c r="A414" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>723</v>
@@ -11332,8 +12149,14 @@
       <c r="G414" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
       <c r="A415" s="1">
         <v>1</v>
       </c>
@@ -11356,7 +12179,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:9">
       <c r="A416" s="1">
         <v>1</v>
       </c>
@@ -14965,7 +15788,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:9">
       <c r="A593" s="1">
         <v>1</v>
       </c>
@@ -14985,7 +15808,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:9">
       <c r="A594" s="1">
         <v>1</v>
       </c>
@@ -15005,7 +15828,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:9">
       <c r="A595" s="1">
         <v>1</v>
       </c>
@@ -15025,7 +15848,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:9">
       <c r="A596" s="1">
         <v>1</v>
       </c>
@@ -15045,7 +15868,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:9">
       <c r="A597" s="1">
         <v>1</v>
       </c>
@@ -15065,7 +15888,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:9">
       <c r="A598" s="1">
         <v>1</v>
       </c>
@@ -15085,7 +15908,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:9">
       <c r="A599" s="1">
         <v>1</v>
       </c>
@@ -15105,7 +15928,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:9">
       <c r="A600" s="1">
         <v>1</v>
       </c>
@@ -15125,7 +15948,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:9">
       <c r="A601" s="1">
         <v>1</v>
       </c>
@@ -15145,7 +15968,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:9">
       <c r="A602" s="1">
         <v>1</v>
       </c>
@@ -15165,7 +15988,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:9">
       <c r="A603" s="1">
         <v>1</v>
       </c>
@@ -15185,7 +16008,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:9">
       <c r="A604" s="1">
         <v>1</v>
       </c>
@@ -15205,7 +16028,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:9">
       <c r="A605" s="1">
         <v>1</v>
       </c>
@@ -15225,7 +16048,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:9">
       <c r="A606" s="1">
         <v>1</v>
       </c>
@@ -15245,7 +16068,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:9">
       <c r="A607" s="1">
         <v>1</v>
       </c>
@@ -15265,12 +16088,15 @@
         <v>435</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:9">
       <c r="A608" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>574</v>
+        <v>640</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>584</v>
@@ -15284,13 +16110,22 @@
       <c r="G608" s="1">
         <v>436</v>
       </c>
-    </row>
-    <row r="609" spans="1:7">
+      <c r="H608" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9">
       <c r="A609" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>574</v>
+        <v>640</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>584</v>
@@ -15304,8 +16139,14 @@
       <c r="G609" s="1">
         <v>437</v>
       </c>
-    </row>
-    <row r="610" spans="1:7">
+      <c r="H609" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9">
       <c r="A610" s="1">
         <v>1</v>
       </c>
@@ -15325,7 +16166,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:9">
       <c r="A611" s="1">
         <v>1</v>
       </c>
@@ -15345,12 +16186,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:9">
       <c r="A612" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>687</v>
@@ -15367,13 +16208,19 @@
       <c r="G612" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="613" spans="1:7">
+      <c r="H612" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9">
       <c r="A613" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>687</v>
@@ -15390,13 +16237,19 @@
       <c r="G613" s="1">
         <v>441</v>
       </c>
-    </row>
-    <row r="614" spans="1:7">
+      <c r="H613" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
       <c r="A614" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>687</v>
@@ -15413,8 +16266,14 @@
       <c r="G614" s="1">
         <v>442</v>
       </c>
-    </row>
-    <row r="615" spans="1:7">
+      <c r="H614" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
       <c r="A615" s="1">
         <v>1</v>
       </c>
@@ -15437,7 +16296,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:9">
       <c r="A616" s="1">
         <v>1</v>
       </c>
@@ -15457,7 +16316,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:9">
       <c r="A617" s="1">
         <v>1</v>
       </c>
@@ -15477,7 +16336,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:9">
       <c r="A618" s="1">
         <v>1</v>
       </c>
@@ -15497,7 +16356,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:9">
       <c r="A619" s="1">
         <v>1</v>
       </c>
@@ -15517,7 +16376,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:9">
       <c r="A620" s="1">
         <v>1</v>
       </c>
@@ -15537,7 +16396,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:9">
       <c r="A621" s="1">
         <v>1</v>
       </c>
@@ -15557,7 +16416,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:9">
       <c r="A622" s="1">
         <v>1</v>
       </c>
@@ -15577,7 +16436,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:9">
       <c r="A623" s="1">
         <v>1</v>
       </c>
@@ -15597,13 +16456,16 @@
         <v>451</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:9">
       <c r="A624" s="1">
         <v>1</v>
       </c>
       <c r="B624" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C624" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="D624" s="1" t="s">
         <v>584</v>
       </c>
@@ -15617,13 +16479,16 @@
         <v>452</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:9">
       <c r="A625" s="1">
         <v>1</v>
       </c>
       <c r="B625" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C625" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="D625" s="1" t="s">
         <v>584</v>
       </c>
@@ -15637,13 +16502,16 @@
         <v>453</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:9">
       <c r="A626" s="1">
         <v>1</v>
       </c>
       <c r="B626" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C626" s="1" t="s">
+        <v>825</v>
+      </c>
       <c r="D626" s="1" t="s">
         <v>584</v>
       </c>
@@ -15657,13 +16525,16 @@
         <v>454</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:9">
       <c r="A627" s="1">
         <v>1</v>
       </c>
       <c r="B627" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C627" s="1" t="s">
+        <v>826</v>
+      </c>
       <c r="D627" s="1" t="s">
         <v>584</v>
       </c>
@@ -15677,13 +16548,16 @@
         <v>455</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:9">
       <c r="A628" s="1">
         <v>1</v>
       </c>
       <c r="B628" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C628" s="1" t="s">
+        <v>827</v>
+      </c>
       <c r="D628" s="1" t="s">
         <v>584</v>
       </c>
@@ -15697,13 +16571,16 @@
         <v>456</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:9">
       <c r="A629" s="1">
         <v>1</v>
       </c>
       <c r="B629" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C629" s="1" t="s">
+        <v>828</v>
+      </c>
       <c r="D629" s="1" t="s">
         <v>584</v>
       </c>
@@ -15717,13 +16594,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:9">
       <c r="A630" s="1">
         <v>1</v>
       </c>
       <c r="B630" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C630" s="1" t="s">
+        <v>829</v>
+      </c>
       <c r="D630" s="1" t="s">
         <v>584</v>
       </c>
@@ -15737,13 +16617,16 @@
         <v>458</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:9">
       <c r="A631" s="1">
         <v>1</v>
       </c>
       <c r="B631" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C631" s="1" t="s">
+        <v>830</v>
+      </c>
       <c r="D631" s="1" t="s">
         <v>584</v>
       </c>
@@ -15756,14 +16639,23 @@
       <c r="G631" s="1">
         <v>459</v>
       </c>
-    </row>
-    <row r="632" spans="1:7">
+      <c r="H631" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9">
       <c r="A632" s="1">
         <v>1</v>
       </c>
       <c r="B632" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C632" s="1" t="s">
+        <v>831</v>
+      </c>
       <c r="D632" s="1" t="s">
         <v>584</v>
       </c>
@@ -15776,14 +16668,23 @@
       <c r="G632" s="1">
         <v>460</v>
       </c>
-    </row>
-    <row r="633" spans="1:7">
+      <c r="H632" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9">
       <c r="A633" s="1">
         <v>1</v>
       </c>
       <c r="B633" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C633" s="1" t="s">
+        <v>832</v>
+      </c>
       <c r="D633" s="1" t="s">
         <v>584</v>
       </c>
@@ -15796,14 +16697,23 @@
       <c r="G633" s="1">
         <v>461</v>
       </c>
-    </row>
-    <row r="634" spans="1:7">
+      <c r="H633" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9">
       <c r="A634" s="1">
         <v>1</v>
       </c>
       <c r="B634" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C634" s="1" t="s">
+        <v>833</v>
+      </c>
       <c r="D634" s="1" t="s">
         <v>584</v>
       </c>
@@ -15817,13 +16727,16 @@
         <v>462</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:9">
       <c r="A635" s="1">
         <v>1</v>
       </c>
       <c r="B635" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C635" s="1" t="s">
+        <v>834</v>
+      </c>
       <c r="D635" s="1" t="s">
         <v>584</v>
       </c>
@@ -15837,13 +16750,16 @@
         <v>463</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:9">
       <c r="A636" s="1">
         <v>1</v>
       </c>
       <c r="B636" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C636" s="1" t="s">
+        <v>835</v>
+      </c>
       <c r="D636" s="1" t="s">
         <v>584</v>
       </c>
@@ -15857,13 +16773,16 @@
         <v>464</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:9">
       <c r="A637" s="1">
         <v>1</v>
       </c>
       <c r="B637" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C637" s="1" t="s">
+        <v>836</v>
+      </c>
       <c r="D637" s="1" t="s">
         <v>584</v>
       </c>
@@ -15877,13 +16796,16 @@
         <v>465</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:9">
       <c r="A638" s="1">
         <v>1</v>
       </c>
       <c r="B638" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C638" s="1" t="s">
+        <v>837</v>
+      </c>
       <c r="D638" s="1" t="s">
         <v>584</v>
       </c>
@@ -15897,13 +16819,16 @@
         <v>466</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:9">
       <c r="A639" s="1">
         <v>1</v>
       </c>
       <c r="B639" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C639" s="3" t="s">
+        <v>838</v>
+      </c>
       <c r="D639" s="1" t="s">
         <v>584</v>
       </c>
@@ -15917,13 +16842,16 @@
         <v>467</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:9">
       <c r="A640" s="1">
         <v>1</v>
       </c>
       <c r="B640" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C640" s="1" t="s">
+        <v>839</v>
+      </c>
       <c r="D640" s="1" t="s">
         <v>584</v>
       </c>
@@ -15943,6 +16871,9 @@
       </c>
       <c r="B641" s="2" t="s">
         <v>640</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="D641" s="1" t="s">
         <v>584</v>
@@ -16418,6 +17349,9 @@
       <c r="B665" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C665" s="1" t="s">
+        <v>841</v>
+      </c>
       <c r="D665" s="1" t="s">
         <v>584</v>
       </c>
@@ -16438,6 +17372,9 @@
       <c r="B666" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C666" s="1" t="s">
+        <v>842</v>
+      </c>
       <c r="D666" s="1" t="s">
         <v>584</v>
       </c>
@@ -16458,6 +17395,9 @@
       <c r="B667" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C667" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="D667" s="1" t="s">
         <v>584</v>
       </c>
@@ -16477,6 +17417,9 @@
       </c>
       <c r="B668" s="2" t="s">
         <v>640</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="D668" s="1" t="s">
         <v>584</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Videos\TTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0905807-D8F9-43F1-9A28-FD5294220AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD21986-FD32-455E-A49B-F689F6532C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3589" uniqueCount="1052">
   <si>
     <t>0x0</t>
   </si>
@@ -3274,6 +3274,362 @@
   </si>
   <si>
     <t>力量手鐲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易筋經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛門獅子吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拈花指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鐘罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菩提訣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗髓經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太極拳法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩儀劍法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯雲縱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天無上正氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大周天天仙功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳舞鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九轉螣挪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛仙化羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨嵋劍法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血殺刀譜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利辯經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易容術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點血截脈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天羅地網</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連環拾參刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘋狂百零捌打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕翅鞭法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五絕神功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫁衣神功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閻王帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閻王魔功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天魔護體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修羅刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殘元催命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明玉功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移花接玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧連環秘笈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弒仙指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遙鞭法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄黃聚納功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛仙訣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七彩奪命鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長空指法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天霸刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攝魂大法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移行換影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海酥麻功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖靈劍法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞月劍訣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐門毒手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九轉歸元勁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰神訣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍虎霸王拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七煞王蠱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷月刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斷空劍法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷蹤步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神農百草經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚財術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇門遁甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世說新語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰心訣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓮靜掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太陰真氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>療傷心法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開鎖秘錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜息功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌虛飛渡功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥王經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媧皇十八變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金錢卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天魔爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕容玄天劍法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血神大法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花神七式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎嘯寶鑑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈蛇鞭法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五仙還魂訣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴風刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼谷神算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子平推命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼打邪功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亂箭訣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無雙神弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲天一箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪山無影箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星雲劍法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵砂掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冰訣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘笈保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3654,8 +4010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14220,6 +14576,9 @@
       <c r="B474" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C474" s="1" t="s">
+        <v>963</v>
+      </c>
       <c r="D474" s="1" t="s">
         <v>582</v>
       </c>
@@ -14240,6 +14599,9 @@
       <c r="B475" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C475" s="1" t="s">
+        <v>964</v>
+      </c>
       <c r="D475" s="1" t="s">
         <v>582</v>
       </c>
@@ -14260,6 +14622,9 @@
       <c r="B476" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C476" s="1" t="s">
+        <v>965</v>
+      </c>
       <c r="D476" s="1" t="s">
         <v>582</v>
       </c>
@@ -14280,6 +14645,9 @@
       <c r="B477" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C477" s="1" t="s">
+        <v>966</v>
+      </c>
       <c r="D477" s="1" t="s">
         <v>582</v>
       </c>
@@ -14300,6 +14668,9 @@
       <c r="B478" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C478" s="1" t="s">
+        <v>967</v>
+      </c>
       <c r="D478" s="1" t="s">
         <v>582</v>
       </c>
@@ -14320,6 +14691,9 @@
       <c r="B479" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C479" s="1" t="s">
+        <v>968</v>
+      </c>
       <c r="D479" s="1" t="s">
         <v>582</v>
       </c>
@@ -14340,6 +14714,9 @@
       <c r="B480" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C480" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="D480" s="1" t="s">
         <v>582</v>
       </c>
@@ -14360,6 +14737,9 @@
       <c r="B481" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C481" s="1" t="s">
+        <v>970</v>
+      </c>
       <c r="D481" s="1" t="s">
         <v>582</v>
       </c>
@@ -14380,6 +14760,9 @@
       <c r="B482" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C482" s="1" t="s">
+        <v>971</v>
+      </c>
       <c r="D482" s="1" t="s">
         <v>582</v>
       </c>
@@ -14400,6 +14783,9 @@
       <c r="B483" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C483" s="1" t="s">
+        <v>972</v>
+      </c>
       <c r="D483" s="1" t="s">
         <v>582</v>
       </c>
@@ -14420,6 +14806,9 @@
       <c r="B484" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C484" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="D484" s="1" t="s">
         <v>582</v>
       </c>
@@ -14440,6 +14829,9 @@
       <c r="B485" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C485" s="1" t="s">
+        <v>974</v>
+      </c>
       <c r="D485" s="1" t="s">
         <v>582</v>
       </c>
@@ -14460,6 +14852,9 @@
       <c r="B486" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C486" s="1" t="s">
+        <v>975</v>
+      </c>
       <c r="D486" s="1" t="s">
         <v>582</v>
       </c>
@@ -14480,6 +14875,9 @@
       <c r="B487" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C487" s="1" t="s">
+        <v>976</v>
+      </c>
       <c r="D487" s="1" t="s">
         <v>582</v>
       </c>
@@ -14500,6 +14898,9 @@
       <c r="B488" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C488" s="1" t="s">
+        <v>977</v>
+      </c>
       <c r="D488" s="1" t="s">
         <v>582</v>
       </c>
@@ -14520,6 +14921,9 @@
       <c r="B489" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C489" s="1" t="s">
+        <v>978</v>
+      </c>
       <c r="D489" s="1" t="s">
         <v>582</v>
       </c>
@@ -14540,6 +14944,9 @@
       <c r="B490" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C490" s="1" t="s">
+        <v>979</v>
+      </c>
       <c r="D490" s="1" t="s">
         <v>582</v>
       </c>
@@ -14560,6 +14967,9 @@
       <c r="B491" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C491" s="1" t="s">
+        <v>980</v>
+      </c>
       <c r="D491" s="1" t="s">
         <v>582</v>
       </c>
@@ -14580,6 +14990,9 @@
       <c r="B492" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C492" s="1" t="s">
+        <v>981</v>
+      </c>
       <c r="D492" s="1" t="s">
         <v>582</v>
       </c>
@@ -14600,6 +15013,9 @@
       <c r="B493" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C493" s="1" t="s">
+        <v>982</v>
+      </c>
       <c r="D493" s="1" t="s">
         <v>582</v>
       </c>
@@ -14620,6 +15036,9 @@
       <c r="B494" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C494" s="1" t="s">
+        <v>983</v>
+      </c>
       <c r="D494" s="1" t="s">
         <v>582</v>
       </c>
@@ -14640,6 +15059,9 @@
       <c r="B495" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C495" s="1" t="s">
+        <v>984</v>
+      </c>
       <c r="D495" s="1" t="s">
         <v>582</v>
       </c>
@@ -14660,6 +15082,9 @@
       <c r="B496" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C496" s="1" t="s">
+        <v>985</v>
+      </c>
       <c r="D496" s="1" t="s">
         <v>582</v>
       </c>
@@ -14680,6 +15105,9 @@
       <c r="B497" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C497" s="1" t="s">
+        <v>986</v>
+      </c>
       <c r="D497" s="1" t="s">
         <v>582</v>
       </c>
@@ -14700,6 +15128,9 @@
       <c r="B498" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C498" s="1" t="s">
+        <v>987</v>
+      </c>
       <c r="D498" s="1" t="s">
         <v>582</v>
       </c>
@@ -14720,6 +15151,9 @@
       <c r="B499" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C499" s="1" t="s">
+        <v>988</v>
+      </c>
       <c r="D499" s="1" t="s">
         <v>582</v>
       </c>
@@ -14740,6 +15174,9 @@
       <c r="B500" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C500" s="1" t="s">
+        <v>989</v>
+      </c>
       <c r="D500" s="1" t="s">
         <v>582</v>
       </c>
@@ -14760,6 +15197,9 @@
       <c r="B501" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C501" s="1" t="s">
+        <v>990</v>
+      </c>
       <c r="D501" s="1" t="s">
         <v>582</v>
       </c>
@@ -14780,6 +15220,9 @@
       <c r="B502" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C502" s="1" t="s">
+        <v>991</v>
+      </c>
       <c r="D502" s="1" t="s">
         <v>582</v>
       </c>
@@ -14800,6 +15243,9 @@
       <c r="B503" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C503" s="1" t="s">
+        <v>992</v>
+      </c>
       <c r="D503" s="1" t="s">
         <v>582</v>
       </c>
@@ -14820,6 +15266,9 @@
       <c r="B504" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C504" s="1" t="s">
+        <v>993</v>
+      </c>
       <c r="D504" s="1" t="s">
         <v>582</v>
       </c>
@@ -14840,6 +15289,9 @@
       <c r="B505" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C505" s="1" t="s">
+        <v>994</v>
+      </c>
       <c r="D505" s="1" t="s">
         <v>582</v>
       </c>
@@ -14855,11 +15307,14 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C506" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="D506" s="1" t="s">
         <v>582</v>
       </c>
@@ -14880,6 +15335,9 @@
       <c r="B507" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C507" s="1" t="s">
+        <v>995</v>
+      </c>
       <c r="D507" s="1" t="s">
         <v>582</v>
       </c>
@@ -14900,6 +15358,9 @@
       <c r="B508" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C508" s="1" t="s">
+        <v>996</v>
+      </c>
       <c r="D508" s="1" t="s">
         <v>582</v>
       </c>
@@ -14920,6 +15381,9 @@
       <c r="B509" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C509" s="1" t="s">
+        <v>997</v>
+      </c>
       <c r="D509" s="1" t="s">
         <v>582</v>
       </c>
@@ -14940,6 +15404,9 @@
       <c r="B510" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C510" s="1" t="s">
+        <v>998</v>
+      </c>
       <c r="D510" s="1" t="s">
         <v>582</v>
       </c>
@@ -14960,6 +15427,9 @@
       <c r="B511" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C511" s="1" t="s">
+        <v>999</v>
+      </c>
       <c r="D511" s="1" t="s">
         <v>582</v>
       </c>
@@ -14980,6 +15450,9 @@
       <c r="B512" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C512" s="1" t="s">
+        <v>1000</v>
+      </c>
       <c r="D512" s="1" t="s">
         <v>582</v>
       </c>
@@ -15000,6 +15473,9 @@
       <c r="B513" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C513" s="1" t="s">
+        <v>1001</v>
+      </c>
       <c r="D513" s="1" t="s">
         <v>582</v>
       </c>
@@ -15020,6 +15496,9 @@
       <c r="B514" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C514" s="1" t="s">
+        <v>1002</v>
+      </c>
       <c r="D514" s="1" t="s">
         <v>582</v>
       </c>
@@ -15040,6 +15519,9 @@
       <c r="B515" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C515" s="1" t="s">
+        <v>1003</v>
+      </c>
       <c r="D515" s="1" t="s">
         <v>582</v>
       </c>
@@ -15060,6 +15542,9 @@
       <c r="B516" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C516" s="1" t="s">
+        <v>1004</v>
+      </c>
       <c r="D516" s="1" t="s">
         <v>582</v>
       </c>
@@ -15080,6 +15565,9 @@
       <c r="B517" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C517" s="1" t="s">
+        <v>1005</v>
+      </c>
       <c r="D517" s="1" t="s">
         <v>582</v>
       </c>
@@ -15100,6 +15588,9 @@
       <c r="B518" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C518" s="1" t="s">
+        <v>1006</v>
+      </c>
       <c r="D518" s="1" t="s">
         <v>582</v>
       </c>
@@ -15120,6 +15611,9 @@
       <c r="B519" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C519" s="1" t="s">
+        <v>1007</v>
+      </c>
       <c r="D519" s="1" t="s">
         <v>582</v>
       </c>
@@ -15140,6 +15634,9 @@
       <c r="B520" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C520" s="1" t="s">
+        <v>1008</v>
+      </c>
       <c r="D520" s="1" t="s">
         <v>582</v>
       </c>
@@ -15160,6 +15657,9 @@
       <c r="B521" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C521" s="1" t="s">
+        <v>1009</v>
+      </c>
       <c r="D521" s="1" t="s">
         <v>582</v>
       </c>
@@ -15180,6 +15680,9 @@
       <c r="B522" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C522" s="1" t="s">
+        <v>1010</v>
+      </c>
       <c r="D522" s="1" t="s">
         <v>582</v>
       </c>
@@ -15200,6 +15703,9 @@
       <c r="B523" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C523" s="1" t="s">
+        <v>1011</v>
+      </c>
       <c r="D523" s="1" t="s">
         <v>582</v>
       </c>
@@ -15220,6 +15726,9 @@
       <c r="B524" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C524" s="1" t="s">
+        <v>1012</v>
+      </c>
       <c r="D524" s="1" t="s">
         <v>582</v>
       </c>
@@ -15240,6 +15749,9 @@
       <c r="B525" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C525" s="1" t="s">
+        <v>1013</v>
+      </c>
       <c r="D525" s="1" t="s">
         <v>582</v>
       </c>
@@ -15260,6 +15772,9 @@
       <c r="B526" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C526" s="1" t="s">
+        <v>1014</v>
+      </c>
       <c r="D526" s="1" t="s">
         <v>582</v>
       </c>
@@ -15280,6 +15795,9 @@
       <c r="B527" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C527" s="1" t="s">
+        <v>1015</v>
+      </c>
       <c r="D527" s="1" t="s">
         <v>582</v>
       </c>
@@ -15300,6 +15818,9 @@
       <c r="B528" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C528" s="1" t="s">
+        <v>1016</v>
+      </c>
       <c r="D528" s="1" t="s">
         <v>582</v>
       </c>
@@ -15320,6 +15841,9 @@
       <c r="B529" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C529" s="1" t="s">
+        <v>1017</v>
+      </c>
       <c r="D529" s="1" t="s">
         <v>582</v>
       </c>
@@ -15340,6 +15864,9 @@
       <c r="B530" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C530" s="1" t="s">
+        <v>1018</v>
+      </c>
       <c r="D530" s="1" t="s">
         <v>582</v>
       </c>
@@ -15360,6 +15887,9 @@
       <c r="B531" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C531" s="1" t="s">
+        <v>1019</v>
+      </c>
       <c r="D531" s="1" t="s">
         <v>582</v>
       </c>
@@ -15380,6 +15910,9 @@
       <c r="B532" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C532" s="1" t="s">
+        <v>1020</v>
+      </c>
       <c r="D532" s="1" t="s">
         <v>582</v>
       </c>
@@ -15400,6 +15933,9 @@
       <c r="B533" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C533" s="1" t="s">
+        <v>1021</v>
+      </c>
       <c r="D533" s="1" t="s">
         <v>582</v>
       </c>
@@ -15420,6 +15956,9 @@
       <c r="B534" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C534" s="1" t="s">
+        <v>1022</v>
+      </c>
       <c r="D534" s="1" t="s">
         <v>582</v>
       </c>
@@ -15440,6 +15979,9 @@
       <c r="B535" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C535" s="1" t="s">
+        <v>1023</v>
+      </c>
       <c r="D535" s="1" t="s">
         <v>582</v>
       </c>
@@ -15460,6 +16002,9 @@
       <c r="B536" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C536" s="1" t="s">
+        <v>1024</v>
+      </c>
       <c r="D536" s="1" t="s">
         <v>582</v>
       </c>
@@ -15480,6 +16025,9 @@
       <c r="B537" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C537" s="1" t="s">
+        <v>1025</v>
+      </c>
       <c r="D537" s="1" t="s">
         <v>582</v>
       </c>
@@ -15500,6 +16048,9 @@
       <c r="B538" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C538" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="D538" s="1" t="s">
         <v>582</v>
       </c>
@@ -15520,6 +16071,9 @@
       <c r="B539" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C539" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="D539" s="1" t="s">
         <v>582</v>
       </c>
@@ -15540,6 +16094,9 @@
       <c r="B540" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C540" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="D540" s="1" t="s">
         <v>582</v>
       </c>
@@ -15560,6 +16117,9 @@
       <c r="B541" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C541" s="1" t="s">
+        <v>1029</v>
+      </c>
       <c r="D541" s="1" t="s">
         <v>582</v>
       </c>
@@ -15580,6 +16140,9 @@
       <c r="B542" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C542" s="1" t="s">
+        <v>1030</v>
+      </c>
       <c r="D542" s="1" t="s">
         <v>582</v>
       </c>
@@ -15600,6 +16163,9 @@
       <c r="B543" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C543" s="1" t="s">
+        <v>1031</v>
+      </c>
       <c r="D543" s="1" t="s">
         <v>582</v>
       </c>
@@ -15620,6 +16186,9 @@
       <c r="B544" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C544" s="1" t="s">
+        <v>1032</v>
+      </c>
       <c r="D544" s="1" t="s">
         <v>582</v>
       </c>
@@ -15640,6 +16209,9 @@
       <c r="B545" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C545" s="1" t="s">
+        <v>1033</v>
+      </c>
       <c r="D545" s="1" t="s">
         <v>582</v>
       </c>
@@ -15660,6 +16232,9 @@
       <c r="B546" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C546" s="1" t="s">
+        <v>1034</v>
+      </c>
       <c r="D546" s="1" t="s">
         <v>582</v>
       </c>
@@ -15680,6 +16255,9 @@
       <c r="B547" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C547" s="1" t="s">
+        <v>1035</v>
+      </c>
       <c r="D547" s="1" t="s">
         <v>582</v>
       </c>
@@ -15700,6 +16278,9 @@
       <c r="B548" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C548" s="1" t="s">
+        <v>1036</v>
+      </c>
       <c r="D548" s="1" t="s">
         <v>582</v>
       </c>
@@ -15720,6 +16301,9 @@
       <c r="B549" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C549" s="1" t="s">
+        <v>1037</v>
+      </c>
       <c r="D549" s="1" t="s">
         <v>582</v>
       </c>
@@ -15740,6 +16324,9 @@
       <c r="B550" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C550" s="1" t="s">
+        <v>1038</v>
+      </c>
       <c r="D550" s="1" t="s">
         <v>582</v>
       </c>
@@ -15760,6 +16347,9 @@
       <c r="B551" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C551" s="1" t="s">
+        <v>1039</v>
+      </c>
       <c r="D551" s="1" t="s">
         <v>582</v>
       </c>
@@ -15780,6 +16370,9 @@
       <c r="B552" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C552" s="1" t="s">
+        <v>1040</v>
+      </c>
       <c r="D552" s="1" t="s">
         <v>582</v>
       </c>
@@ -15800,6 +16393,9 @@
       <c r="B553" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C553" s="1" t="s">
+        <v>1041</v>
+      </c>
       <c r="D553" s="1" t="s">
         <v>582</v>
       </c>
@@ -15820,6 +16416,9 @@
       <c r="B554" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C554" s="1" t="s">
+        <v>1042</v>
+      </c>
       <c r="D554" s="1" t="s">
         <v>582</v>
       </c>
@@ -15840,6 +16439,9 @@
       <c r="B555" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C555" s="1" t="s">
+        <v>1043</v>
+      </c>
       <c r="D555" s="1" t="s">
         <v>582</v>
       </c>
@@ -15860,6 +16462,9 @@
       <c r="B556" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C556" s="1" t="s">
+        <v>1044</v>
+      </c>
       <c r="D556" s="1" t="s">
         <v>582</v>
       </c>
@@ -15880,6 +16485,9 @@
       <c r="B557" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C557" s="1" t="s">
+        <v>1045</v>
+      </c>
       <c r="D557" s="1" t="s">
         <v>582</v>
       </c>
@@ -15900,6 +16508,9 @@
       <c r="B558" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C558" s="1" t="s">
+        <v>1046</v>
+      </c>
       <c r="D558" s="1" t="s">
         <v>582</v>
       </c>
@@ -15920,6 +16531,9 @@
       <c r="B559" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C559" s="1" t="s">
+        <v>1047</v>
+      </c>
       <c r="D559" s="1" t="s">
         <v>582</v>
       </c>
@@ -15940,6 +16554,9 @@
       <c r="B560" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C560" s="1" t="s">
+        <v>1048</v>
+      </c>
       <c r="D560" s="1" t="s">
         <v>582</v>
       </c>
@@ -15960,6 +16577,9 @@
       <c r="B561" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C561" s="1" t="s">
+        <v>1049</v>
+      </c>
       <c r="D561" s="1" t="s">
         <v>582</v>
       </c>
@@ -15980,6 +16600,9 @@
       <c r="B562" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="C562" s="1" t="s">
+        <v>1050</v>
+      </c>
       <c r="D562" s="1" t="s">
         <v>582</v>
       </c>
@@ -15998,7 +16621,10 @@
         <v>1</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>582</v>
@@ -16018,7 +16644,10 @@
         <v>1</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>582</v>
@@ -16038,7 +16667,10 @@
         <v>1</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>582</v>
@@ -16058,7 +16690,10 @@
         <v>1</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D566" s="1" t="s">
         <v>582</v>
@@ -16078,7 +16713,10 @@
         <v>1</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>582</v>
@@ -16098,7 +16736,10 @@
         <v>1</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>582</v>
@@ -16118,7 +16759,10 @@
         <v>1</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>582</v>
@@ -16138,7 +16782,10 @@
         <v>1</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>582</v>
@@ -16158,7 +16805,10 @@
         <v>1</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>582</v>
@@ -16178,7 +16828,10 @@
         <v>1</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>582</v>
@@ -16198,7 +16851,10 @@
         <v>1</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>582</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Videos\TTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD21986-FD32-455E-A49B-F689F6532C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C9795-046F-4FC0-A94D-BF025408B4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3589" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1060">
   <si>
     <t>0x0</t>
   </si>
@@ -3630,6 +3630,38 @@
   </si>
   <si>
     <t>秘笈保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就鐵砂掌阿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化魂針</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奪命隱匕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解厄符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捲簾符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開天符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶籙符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4008,10 +4040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C583" sqref="C583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4046,7 +4079,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4066,7 +4099,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4086,7 +4119,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4106,7 +4139,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4126,7 +4159,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4146,7 +4179,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4166,7 +4199,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4186,7 +4219,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4206,7 +4239,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4226,7 +4259,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4246,7 +4279,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4266,7 +4299,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4286,7 +4319,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4306,7 +4339,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -4326,7 +4359,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4346,7 +4379,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4366,7 +4399,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4386,7 +4419,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -4406,7 +4439,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4426,7 +4459,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -4446,7 +4479,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4466,7 +4499,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -4486,7 +4519,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -4506,7 +4539,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -4526,7 +4559,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -4546,7 +4579,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -4566,7 +4599,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -4586,7 +4619,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -4606,7 +4639,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -4626,7 +4659,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -4646,7 +4679,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -4666,7 +4699,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4686,7 +4719,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -4706,7 +4739,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -4726,7 +4759,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -4746,7 +4779,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -4766,7 +4799,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -4786,7 +4819,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -4806,7 +4839,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -4826,7 +4859,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -4846,7 +4879,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -4866,7 +4899,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -4886,7 +4919,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -4906,7 +4939,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -4926,7 +4959,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -4946,7 +4979,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -4966,7 +4999,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -4986,7 +5019,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -5006,7 +5039,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -5026,7 +5059,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -5046,7 +5079,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -5066,7 +5099,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -5086,7 +5119,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -5106,7 +5139,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -5126,7 +5159,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -5146,7 +5179,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -5166,7 +5199,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -5186,7 +5219,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -5206,7 +5239,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -5226,7 +5259,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -5246,7 +5279,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -5266,7 +5299,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -5286,7 +5319,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -5306,7 +5339,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -5326,7 +5359,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -5346,7 +5379,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -5366,7 +5399,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -5386,7 +5419,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -5406,7 +5439,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -5426,7 +5459,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -5446,7 +5479,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -5466,7 +5499,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -5486,7 +5519,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -5506,7 +5539,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -5526,7 +5559,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -5546,7 +5579,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -5566,7 +5599,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -5586,7 +5619,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -5606,7 +5639,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -5626,7 +5659,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -5646,7 +5679,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -5666,7 +5699,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -5686,7 +5719,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -5706,7 +5739,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -5726,7 +5759,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -5746,7 +5779,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -5766,7 +5799,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -5786,7 +5819,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -5806,7 +5839,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -5826,7 +5859,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -5846,7 +5879,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -5866,7 +5899,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -5886,7 +5919,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -5906,7 +5939,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -5926,7 +5959,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -5946,7 +5979,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -5966,7 +5999,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -5986,7 +6019,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -6006,7 +6039,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -6026,7 +6059,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -6046,7 +6079,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -6066,7 +6099,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -6086,7 +6119,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -6106,7 +6139,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -6126,7 +6159,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -6146,7 +6179,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -6166,7 +6199,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -6186,7 +6219,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -6206,7 +6239,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -6226,7 +6259,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -6246,7 +6279,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -6266,7 +6299,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -6286,7 +6319,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -6306,7 +6339,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -6326,7 +6359,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -6346,7 +6379,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -6366,7 +6399,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -6386,7 +6419,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -6406,7 +6439,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -6426,7 +6459,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -6446,7 +6479,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -6466,7 +6499,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -6486,7 +6519,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -6506,7 +6539,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -6526,7 +6559,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -6546,7 +6579,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -6566,7 +6599,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -6586,7 +6619,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -6606,7 +6639,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -6626,7 +6659,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" s="1">
         <v>1</v>
       </c>
@@ -6646,7 +6679,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" s="1">
         <v>1</v>
       </c>
@@ -6666,7 +6699,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" s="1">
         <v>1</v>
       </c>
@@ -6686,7 +6719,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" s="1">
         <v>1</v>
       </c>
@@ -6706,7 +6739,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -6726,7 +6759,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" s="1">
         <v>1</v>
       </c>
@@ -6746,7 +6779,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" s="1">
         <v>1</v>
       </c>
@@ -6766,7 +6799,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" s="1">
         <v>1</v>
       </c>
@@ -6786,7 +6819,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" s="1">
         <v>1</v>
       </c>
@@ -6806,7 +6839,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -6826,7 +6859,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" s="1">
         <v>1</v>
       </c>
@@ -6846,7 +6879,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" s="1">
         <v>1</v>
       </c>
@@ -6866,7 +6899,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -6886,7 +6919,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" s="1">
         <v>1</v>
       </c>
@@ -6906,7 +6939,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" s="1">
         <v>1</v>
       </c>
@@ -6926,7 +6959,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -6946,7 +6979,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" s="1">
         <v>1</v>
       </c>
@@ -6966,7 +6999,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -6986,7 +7019,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" s="1">
         <v>1</v>
       </c>
@@ -7006,7 +7039,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" s="1">
         <v>1</v>
       </c>
@@ -7026,7 +7059,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" s="1">
         <v>1</v>
       </c>
@@ -7046,7 +7079,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" s="1">
         <v>1</v>
       </c>
@@ -7066,7 +7099,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" s="1">
         <v>1</v>
       </c>
@@ -7086,7 +7119,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" s="1">
         <v>1</v>
       </c>
@@ -7106,7 +7139,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" s="1">
         <v>1</v>
       </c>
@@ -7126,7 +7159,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" s="1">
         <v>1</v>
       </c>
@@ -7146,7 +7179,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" s="1">
         <v>1</v>
       </c>
@@ -7166,7 +7199,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" s="1">
         <v>1</v>
       </c>
@@ -7186,7 +7219,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" s="1">
         <v>1</v>
       </c>
@@ -7206,7 +7239,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" s="1">
         <v>1</v>
       </c>
@@ -7226,7 +7259,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="1">
         <v>1</v>
       </c>
@@ -7246,7 +7279,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="1">
         <v>1</v>
       </c>
@@ -7266,7 +7299,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="1">
         <v>1</v>
       </c>
@@ -7286,7 +7319,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -7306,7 +7339,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="1">
         <v>1</v>
       </c>
@@ -7326,7 +7359,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" hidden="1">
       <c r="A166" s="1">
         <v>1</v>
       </c>
@@ -7346,7 +7379,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="1">
         <v>1</v>
       </c>
@@ -7366,7 +7399,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" hidden="1">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -7386,7 +7419,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -7406,7 +7439,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" hidden="1">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -7426,7 +7459,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -7446,7 +7479,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -7466,7 +7499,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" hidden="1">
       <c r="A173" s="1">
         <v>1</v>
       </c>
@@ -7489,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="1">
         <v>1</v>
       </c>
@@ -7512,7 +7545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" hidden="1">
       <c r="A175" s="1">
         <v>1</v>
       </c>
@@ -7535,7 +7568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176" s="1">
         <v>1</v>
       </c>
@@ -7558,7 +7591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -7581,7 +7614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="1">
         <v>1</v>
       </c>
@@ -7604,7 +7637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="1">
         <v>1</v>
       </c>
@@ -7627,7 +7660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="1">
         <v>1</v>
       </c>
@@ -7650,7 +7683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" s="1">
         <v>1</v>
       </c>
@@ -7673,7 +7706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="1">
         <v>1</v>
       </c>
@@ -7696,7 +7729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -7719,7 +7752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184" s="1">
         <v>1</v>
       </c>
@@ -7742,7 +7775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185" s="1">
         <v>1</v>
       </c>
@@ -7765,7 +7798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" s="1">
         <v>1</v>
       </c>
@@ -7788,7 +7821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" hidden="1">
       <c r="A187" s="1">
         <v>1</v>
       </c>
@@ -7811,7 +7844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" s="1">
         <v>1</v>
       </c>
@@ -7834,7 +7867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" hidden="1">
       <c r="A189" s="1">
         <v>1</v>
       </c>
@@ -7857,7 +7890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="1">
         <v>1</v>
       </c>
@@ -7880,7 +7913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -7903,7 +7936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" hidden="1">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -7926,7 +7959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" s="1">
         <v>1</v>
       </c>
@@ -7949,7 +7982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" hidden="1">
       <c r="A194" s="1">
         <v>1</v>
       </c>
@@ -7972,7 +8005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" hidden="1">
       <c r="A195" s="1">
         <v>1</v>
       </c>
@@ -7995,7 +8028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" hidden="1">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -8018,7 +8051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" hidden="1">
       <c r="A197" s="1">
         <v>1</v>
       </c>
@@ -8041,7 +8074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" s="1">
         <v>1</v>
       </c>
@@ -8064,7 +8097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" s="1">
         <v>1</v>
       </c>
@@ -8087,7 +8120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" hidden="1">
       <c r="A200" s="1">
         <v>1</v>
       </c>
@@ -8110,7 +8143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" hidden="1">
       <c r="A201" s="1">
         <v>1</v>
       </c>
@@ -8133,7 +8166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" hidden="1">
       <c r="A202" s="1">
         <v>1</v>
       </c>
@@ -8156,7 +8189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" hidden="1">
       <c r="A203" s="1">
         <v>1</v>
       </c>
@@ -8179,7 +8212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" hidden="1">
       <c r="A204" s="1">
         <v>1</v>
       </c>
@@ -8202,7 +8235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" hidden="1">
       <c r="A205" s="1">
         <v>1</v>
       </c>
@@ -8228,7 +8261,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" s="1">
         <v>1</v>
       </c>
@@ -8251,7 +8284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" hidden="1">
       <c r="A207" s="1">
         <v>1</v>
       </c>
@@ -8274,7 +8307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" s="1">
         <v>1</v>
       </c>
@@ -8297,7 +8330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="1">
         <v>1</v>
       </c>
@@ -8320,7 +8353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="1">
         <v>1</v>
       </c>
@@ -8343,7 +8376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="1">
         <v>1</v>
       </c>
@@ -8366,7 +8399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="1">
         <v>1</v>
       </c>
@@ -8389,7 +8422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="1">
         <v>1</v>
       </c>
@@ -8412,7 +8445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -8435,7 +8468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="1">
         <v>1</v>
       </c>
@@ -8458,7 +8491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -8481,7 +8514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="1">
         <v>1</v>
       </c>
@@ -8504,7 +8537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="1">
         <v>1</v>
       </c>
@@ -8527,7 +8560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="1">
         <v>1</v>
       </c>
@@ -8550,7 +8583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -8573,7 +8606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="1">
         <v>1</v>
       </c>
@@ -8596,7 +8629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="1">
         <v>1</v>
       </c>
@@ -8619,7 +8652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="1">
         <v>1</v>
       </c>
@@ -8642,7 +8675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="1">
         <v>1</v>
       </c>
@@ -8665,7 +8698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" s="1">
         <v>1</v>
       </c>
@@ -8688,7 +8721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" s="1">
         <v>1</v>
       </c>
@@ -8711,7 +8744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -8734,7 +8767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="A228" s="1">
         <v>1</v>
       </c>
@@ -8757,7 +8790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="A229" s="1">
         <v>1</v>
       </c>
@@ -8780,7 +8813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="A230" s="1">
         <v>1</v>
       </c>
@@ -8803,7 +8836,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="1">
         <v>1</v>
       </c>
@@ -8826,7 +8859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" s="1">
         <v>1</v>
       </c>
@@ -8849,7 +8882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" s="1">
         <v>1</v>
       </c>
@@ -8872,7 +8905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="1">
         <v>1</v>
       </c>
@@ -8895,7 +8928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" s="1">
         <v>1</v>
       </c>
@@ -8918,7 +8951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236" s="1">
         <v>1</v>
       </c>
@@ -8944,7 +8977,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" s="1">
         <v>1</v>
       </c>
@@ -8973,7 +9006,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" s="1">
         <v>1</v>
       </c>
@@ -8996,7 +9029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" s="1">
         <v>1</v>
       </c>
@@ -9019,7 +9052,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="1">
         <v>1</v>
       </c>
@@ -9042,7 +9075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" hidden="1">
       <c r="A241" s="1">
         <v>1</v>
       </c>
@@ -9065,7 +9098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -9088,7 +9121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="1">
         <v>1</v>
       </c>
@@ -9111,7 +9144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -9134,7 +9167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" s="1">
         <v>1</v>
       </c>
@@ -9157,7 +9190,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246" s="1">
         <v>1</v>
       </c>
@@ -9180,7 +9213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" s="1">
         <v>1</v>
       </c>
@@ -9203,7 +9236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" s="1">
         <v>1</v>
       </c>
@@ -9226,7 +9259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" s="1">
         <v>1</v>
       </c>
@@ -9249,7 +9282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1">
       <c r="A250" s="1">
         <v>1</v>
       </c>
@@ -9272,7 +9305,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" hidden="1">
       <c r="A251" s="1">
         <v>1</v>
       </c>
@@ -9295,9 +9328,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" hidden="1">
       <c r="A252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>638</v>
@@ -9324,7 +9357,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" hidden="1">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -9347,7 +9380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254" s="1">
         <v>1</v>
       </c>
@@ -9370,7 +9403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" hidden="1">
       <c r="A255" s="1">
         <v>1</v>
       </c>
@@ -9393,7 +9426,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" hidden="1">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -9416,7 +9449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" hidden="1">
       <c r="A257" s="1">
         <v>1</v>
       </c>
@@ -9439,7 +9472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" hidden="1">
       <c r="A258" s="1">
         <v>1</v>
       </c>
@@ -9462,7 +9495,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" hidden="1">
       <c r="A259" s="1">
         <v>1</v>
       </c>
@@ -9485,7 +9518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" hidden="1">
       <c r="A260" s="1">
         <v>1</v>
       </c>
@@ -9508,7 +9541,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" hidden="1">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -9531,7 +9564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" hidden="1">
       <c r="A262" s="1">
         <v>1</v>
       </c>
@@ -9554,7 +9587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263" s="1">
         <v>1</v>
       </c>
@@ -9577,7 +9610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" hidden="1">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -9600,7 +9633,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" hidden="1">
       <c r="A265" s="1">
         <v>1</v>
       </c>
@@ -9623,7 +9656,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" hidden="1">
       <c r="A266" s="1">
         <v>1</v>
       </c>
@@ -9646,7 +9679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" hidden="1">
       <c r="A267" s="1">
         <v>1</v>
       </c>
@@ -9669,7 +9702,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" hidden="1">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -9692,7 +9725,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" hidden="1">
       <c r="A269" s="1">
         <v>1</v>
       </c>
@@ -9715,7 +9748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" hidden="1">
       <c r="A270" s="1">
         <v>1</v>
       </c>
@@ -9738,7 +9771,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" hidden="1">
       <c r="A271" s="1">
         <v>1</v>
       </c>
@@ -9761,7 +9794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272" s="1">
         <v>1</v>
       </c>
@@ -9784,7 +9817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" s="1">
         <v>1</v>
       </c>
@@ -9807,7 +9840,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" hidden="1">
       <c r="A274" s="1">
         <v>1</v>
       </c>
@@ -9830,7 +9863,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275" s="1">
         <v>1</v>
       </c>
@@ -9853,7 +9886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1">
       <c r="A276" s="1">
         <v>1</v>
       </c>
@@ -9876,7 +9909,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" s="1">
         <v>1</v>
       </c>
@@ -9899,7 +9932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" hidden="1">
       <c r="A278" s="1">
         <v>1</v>
       </c>
@@ -9922,7 +9955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279" s="1">
         <v>1</v>
       </c>
@@ -9945,7 +9978,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" hidden="1">
       <c r="A280" s="1">
         <v>1</v>
       </c>
@@ -9968,7 +10001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" hidden="1">
       <c r="A281" s="1">
         <v>1</v>
       </c>
@@ -9991,7 +10024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" hidden="1">
       <c r="A282" s="1">
         <v>1</v>
       </c>
@@ -10014,7 +10047,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" hidden="1">
       <c r="A283" s="1">
         <v>1</v>
       </c>
@@ -10037,7 +10070,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" hidden="1">
       <c r="A284" s="1">
         <v>1</v>
       </c>
@@ -10060,7 +10093,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" hidden="1">
       <c r="A285" s="1">
         <v>1</v>
       </c>
@@ -10083,7 +10116,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" hidden="1">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -10106,7 +10139,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" s="1">
         <v>1</v>
       </c>
@@ -10129,7 +10162,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288" s="1">
         <v>1</v>
       </c>
@@ -10152,7 +10185,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" hidden="1">
       <c r="A289" s="1">
         <v>1</v>
       </c>
@@ -10175,7 +10208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290" s="1">
         <v>1</v>
       </c>
@@ -10198,7 +10231,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291" s="1">
         <v>1</v>
       </c>
@@ -10221,7 +10254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" hidden="1">
       <c r="A292" s="1">
         <v>1</v>
       </c>
@@ -10244,7 +10277,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" s="1">
         <v>1</v>
       </c>
@@ -10267,7 +10300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" s="1">
         <v>1</v>
       </c>
@@ -10290,7 +10323,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295" s="1">
         <v>1</v>
       </c>
@@ -10313,7 +10346,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" hidden="1">
       <c r="A296" s="1">
         <v>1</v>
       </c>
@@ -10336,7 +10369,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" s="1">
         <v>1</v>
       </c>
@@ -10359,7 +10392,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" hidden="1">
       <c r="A298" s="1">
         <v>1</v>
       </c>
@@ -10382,7 +10415,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" hidden="1">
       <c r="A299" s="1">
         <v>1</v>
       </c>
@@ -10405,7 +10438,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" hidden="1">
       <c r="A300" s="1">
         <v>1</v>
       </c>
@@ -10428,7 +10461,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" hidden="1">
       <c r="A301" s="1">
         <v>1</v>
       </c>
@@ -10451,7 +10484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" hidden="1">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -10474,7 +10507,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" hidden="1">
       <c r="A303" s="1">
         <v>1</v>
       </c>
@@ -10497,7 +10530,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" hidden="1">
       <c r="A304" s="1">
         <v>1</v>
       </c>
@@ -10520,7 +10553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" hidden="1">
       <c r="A305" s="1">
         <v>1</v>
       </c>
@@ -10543,7 +10576,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" hidden="1">
       <c r="A306" s="1">
         <v>1</v>
       </c>
@@ -10566,7 +10599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" hidden="1">
       <c r="A307" s="1">
         <v>1</v>
       </c>
@@ -10589,7 +10622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" hidden="1">
       <c r="A308" s="1">
         <v>1</v>
       </c>
@@ -10612,7 +10645,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" hidden="1">
       <c r="A309" s="1">
         <v>1</v>
       </c>
@@ -10638,7 +10671,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" hidden="1">
       <c r="A310" s="1">
         <v>1</v>
       </c>
@@ -10661,7 +10694,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" hidden="1">
       <c r="A311" s="1">
         <v>1</v>
       </c>
@@ -10684,7 +10717,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" hidden="1">
       <c r="A312" s="1">
         <v>1</v>
       </c>
@@ -10707,7 +10740,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" hidden="1">
       <c r="A313" s="1">
         <v>1</v>
       </c>
@@ -10730,7 +10763,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" hidden="1">
       <c r="A314" s="1">
         <v>1</v>
       </c>
@@ -10753,7 +10786,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" hidden="1">
       <c r="A315" s="1">
         <v>1</v>
       </c>
@@ -10776,7 +10809,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" hidden="1">
       <c r="A316" s="1">
         <v>1</v>
       </c>
@@ -10799,7 +10832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" hidden="1">
       <c r="A317" s="1">
         <v>1</v>
       </c>
@@ -10822,7 +10855,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" hidden="1">
       <c r="A318" s="1">
         <v>1</v>
       </c>
@@ -10845,7 +10878,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" hidden="1">
       <c r="A319" s="1">
         <v>1</v>
       </c>
@@ -10868,7 +10901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" hidden="1">
       <c r="A320" s="1">
         <v>1</v>
       </c>
@@ -10891,7 +10924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" hidden="1">
       <c r="A321" s="1">
         <v>1</v>
       </c>
@@ -10914,7 +10947,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" hidden="1">
       <c r="A322" s="1">
         <v>1</v>
       </c>
@@ -10937,7 +10970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" hidden="1">
       <c r="A323" s="1">
         <v>1</v>
       </c>
@@ -10960,7 +10993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" hidden="1">
       <c r="A324" s="1">
         <v>1</v>
       </c>
@@ -10983,7 +11016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" hidden="1">
       <c r="A325" s="1">
         <v>1</v>
       </c>
@@ -11006,7 +11039,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" hidden="1">
       <c r="A326" s="1">
         <v>1</v>
       </c>
@@ -11029,7 +11062,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" hidden="1">
       <c r="A327" s="1">
         <v>1</v>
       </c>
@@ -11052,7 +11085,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" hidden="1">
       <c r="A328" s="1">
         <v>1</v>
       </c>
@@ -11075,7 +11108,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" hidden="1">
       <c r="A329" s="1">
         <v>1</v>
       </c>
@@ -11098,7 +11131,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" hidden="1">
       <c r="A330" s="1">
         <v>1</v>
       </c>
@@ -11121,7 +11154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" hidden="1">
       <c r="A331" s="1">
         <v>1</v>
       </c>
@@ -11144,7 +11177,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" hidden="1">
       <c r="A332" s="1">
         <v>1</v>
       </c>
@@ -11167,7 +11200,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" hidden="1">
       <c r="A333" s="1">
         <v>1</v>
       </c>
@@ -11193,7 +11226,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" hidden="1">
       <c r="A334" s="1">
         <v>1</v>
       </c>
@@ -11216,7 +11249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" hidden="1">
       <c r="A335" s="1">
         <v>1</v>
       </c>
@@ -11239,7 +11272,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" hidden="1">
       <c r="A336" s="1">
         <v>1</v>
       </c>
@@ -11262,7 +11295,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" hidden="1">
       <c r="A337" s="1">
         <v>1</v>
       </c>
@@ -11285,7 +11318,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" hidden="1">
       <c r="A338" s="1">
         <v>1</v>
       </c>
@@ -11308,7 +11341,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1">
       <c r="A339" s="1">
         <v>1</v>
       </c>
@@ -11331,7 +11364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" hidden="1">
       <c r="A340" s="1">
         <v>1</v>
       </c>
@@ -11354,7 +11387,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" hidden="1">
       <c r="A341" s="1">
         <v>1</v>
       </c>
@@ -11377,7 +11410,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" hidden="1">
       <c r="A342" s="1">
         <v>1</v>
       </c>
@@ -11400,7 +11433,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" hidden="1">
       <c r="A343" s="1">
         <v>1</v>
       </c>
@@ -11423,7 +11456,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" hidden="1">
       <c r="A344" s="1">
         <v>1</v>
       </c>
@@ -11446,7 +11479,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" hidden="1">
       <c r="A345" s="1">
         <v>1</v>
       </c>
@@ -11469,7 +11502,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" hidden="1">
       <c r="A346" s="1">
         <v>1</v>
       </c>
@@ -11492,7 +11525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" hidden="1">
       <c r="A347" s="1">
         <v>1</v>
       </c>
@@ -11515,7 +11548,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" hidden="1">
       <c r="A348" s="1">
         <v>1</v>
       </c>
@@ -11538,7 +11571,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" hidden="1">
       <c r="A349" s="1">
         <v>1</v>
       </c>
@@ -11561,7 +11594,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" hidden="1">
       <c r="A350" s="1">
         <v>1</v>
       </c>
@@ -11584,7 +11617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" hidden="1">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -11607,7 +11640,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" hidden="1">
       <c r="A352" s="1">
         <v>1</v>
       </c>
@@ -11630,7 +11663,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" hidden="1">
       <c r="A353" s="1">
         <v>1</v>
       </c>
@@ -11653,7 +11686,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" hidden="1">
       <c r="A354" s="1">
         <v>1</v>
       </c>
@@ -11676,7 +11709,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" hidden="1">
       <c r="A355" s="1">
         <v>1</v>
       </c>
@@ -11699,7 +11732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" hidden="1">
       <c r="A356" s="1">
         <v>1</v>
       </c>
@@ -11722,7 +11755,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" hidden="1">
       <c r="A357" s="1">
         <v>1</v>
       </c>
@@ -11745,7 +11778,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" hidden="1">
       <c r="A358" s="1">
         <v>1</v>
       </c>
@@ -11768,7 +11801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" hidden="1">
       <c r="A359" s="1">
         <v>1</v>
       </c>
@@ -11791,7 +11824,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" hidden="1">
       <c r="A360" s="1">
         <v>1</v>
       </c>
@@ -11814,7 +11847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" hidden="1">
       <c r="A361" s="1">
         <v>1</v>
       </c>
@@ -11837,7 +11870,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" hidden="1">
       <c r="A362" s="1">
         <v>1</v>
       </c>
@@ -11860,7 +11893,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" hidden="1">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -11883,7 +11916,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" hidden="1">
       <c r="A364" s="1">
         <v>1</v>
       </c>
@@ -11906,7 +11939,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" hidden="1">
       <c r="A365" s="1">
         <v>1</v>
       </c>
@@ -11929,7 +11962,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" hidden="1">
       <c r="A366" s="1">
         <v>1</v>
       </c>
@@ -11952,7 +11985,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" hidden="1">
       <c r="A367" s="1">
         <v>1</v>
       </c>
@@ -11975,7 +12008,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" hidden="1">
       <c r="A368" s="1">
         <v>1</v>
       </c>
@@ -11998,7 +12031,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" hidden="1">
       <c r="A369" s="1">
         <v>1</v>
       </c>
@@ -12021,7 +12054,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" hidden="1">
       <c r="A370" s="1">
         <v>1</v>
       </c>
@@ -12044,7 +12077,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" hidden="1">
       <c r="A371" s="1">
         <v>1</v>
       </c>
@@ -12067,7 +12100,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" hidden="1">
       <c r="A372" s="1">
         <v>1</v>
       </c>
@@ -12090,7 +12123,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" hidden="1">
       <c r="A373" s="1">
         <v>0</v>
       </c>
@@ -12119,7 +12152,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" hidden="1">
       <c r="A374" s="1">
         <v>1</v>
       </c>
@@ -12142,7 +12175,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" hidden="1">
       <c r="A375" s="1">
         <v>1</v>
       </c>
@@ -12165,7 +12198,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" hidden="1">
       <c r="A376" s="1">
         <v>1</v>
       </c>
@@ -12188,7 +12221,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" hidden="1">
       <c r="A377" s="1">
         <v>1</v>
       </c>
@@ -12211,7 +12244,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" hidden="1">
       <c r="A378" s="1">
         <v>1</v>
       </c>
@@ -12234,7 +12267,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" hidden="1">
       <c r="A379" s="1">
         <v>1</v>
       </c>
@@ -12257,7 +12290,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" hidden="1">
       <c r="A380" s="1">
         <v>1</v>
       </c>
@@ -12280,7 +12313,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" hidden="1">
       <c r="A381" s="1">
         <v>1</v>
       </c>
@@ -12303,7 +12336,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" hidden="1">
       <c r="A382" s="1">
         <v>1</v>
       </c>
@@ -12326,7 +12359,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" hidden="1">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -12349,7 +12382,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" hidden="1">
       <c r="A384" s="1">
         <v>1</v>
       </c>
@@ -12372,7 +12405,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" hidden="1">
       <c r="A385" s="1">
         <v>1</v>
       </c>
@@ -12395,7 +12428,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" hidden="1">
       <c r="A386" s="1">
         <v>1</v>
       </c>
@@ -12418,7 +12451,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" hidden="1">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -12441,7 +12474,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" hidden="1">
       <c r="A388" s="1">
         <v>1</v>
       </c>
@@ -12464,7 +12497,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" hidden="1">
       <c r="A389" s="1">
         <v>1</v>
       </c>
@@ -12487,7 +12520,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" hidden="1">
       <c r="A390" s="1">
         <v>1</v>
       </c>
@@ -12510,7 +12543,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" hidden="1">
       <c r="A391" s="1">
         <v>1</v>
       </c>
@@ -12533,7 +12566,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" hidden="1">
       <c r="A392" s="1">
         <v>1</v>
       </c>
@@ -12556,7 +12589,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" hidden="1">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -12585,7 +12618,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" hidden="1">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -12614,7 +12647,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" hidden="1">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -12643,7 +12676,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" hidden="1">
       <c r="A396" s="1">
         <v>0</v>
       </c>
@@ -12672,7 +12705,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" hidden="1">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -12701,7 +12734,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" hidden="1">
       <c r="A398" s="1">
         <v>0</v>
       </c>
@@ -12730,7 +12763,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" hidden="1">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -12759,7 +12792,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" hidden="1">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -12788,7 +12821,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" hidden="1">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -12817,7 +12850,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" hidden="1">
       <c r="A402" s="1">
         <v>0</v>
       </c>
@@ -12846,7 +12879,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" hidden="1">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -12875,7 +12908,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" hidden="1">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -12904,7 +12937,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" hidden="1">
       <c r="A405" s="1">
         <v>0</v>
       </c>
@@ -12933,7 +12966,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" hidden="1">
       <c r="A406" s="1">
         <v>0</v>
       </c>
@@ -12962,7 +12995,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" hidden="1">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -12991,7 +13024,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" hidden="1">
       <c r="A408" s="1">
         <v>0</v>
       </c>
@@ -13020,7 +13053,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" hidden="1">
       <c r="A409" s="1">
         <v>0</v>
       </c>
@@ -13049,7 +13082,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" hidden="1">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -13078,7 +13111,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" hidden="1">
       <c r="A411" s="1">
         <v>0</v>
       </c>
@@ -13107,7 +13140,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" hidden="1">
       <c r="A412" s="1">
         <v>0</v>
       </c>
@@ -13136,7 +13169,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" hidden="1">
       <c r="A413" s="1">
         <v>0</v>
       </c>
@@ -13165,7 +13198,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" hidden="1">
       <c r="A414" s="1">
         <v>0</v>
       </c>
@@ -13194,7 +13227,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" hidden="1">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -13220,7 +13253,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" hidden="1">
       <c r="A416" s="1">
         <v>0</v>
       </c>
@@ -13246,7 +13279,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" hidden="1">
       <c r="A417" s="1">
         <v>0</v>
       </c>
@@ -13272,7 +13305,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" hidden="1">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -13298,7 +13331,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" hidden="1">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -13324,7 +13357,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" hidden="1">
       <c r="A420" s="1">
         <v>0</v>
       </c>
@@ -13350,7 +13383,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" hidden="1">
       <c r="A421" s="1">
         <v>0</v>
       </c>
@@ -13376,7 +13409,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" hidden="1">
       <c r="A422" s="1">
         <v>0</v>
       </c>
@@ -13402,7 +13435,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" hidden="1">
       <c r="A423" s="1">
         <v>0</v>
       </c>
@@ -13428,7 +13461,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" hidden="1">
       <c r="A424" s="1">
         <v>1</v>
       </c>
@@ -13451,7 +13484,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" hidden="1">
       <c r="A425" s="1">
         <v>1</v>
       </c>
@@ -13474,7 +13507,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" hidden="1">
       <c r="A426" s="1">
         <v>1</v>
       </c>
@@ -13497,7 +13530,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" hidden="1">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -13520,7 +13553,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" hidden="1">
       <c r="A428" s="1">
         <v>1</v>
       </c>
@@ -13543,7 +13576,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" hidden="1">
       <c r="A429" s="1">
         <v>1</v>
       </c>
@@ -13566,7 +13599,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" hidden="1">
       <c r="A430" s="1">
         <v>1</v>
       </c>
@@ -13589,7 +13622,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" hidden="1">
       <c r="A431" s="1">
         <v>1</v>
       </c>
@@ -13612,7 +13645,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" hidden="1">
       <c r="A432" s="1">
         <v>1</v>
       </c>
@@ -13635,7 +13668,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" hidden="1">
       <c r="A433" s="1">
         <v>1</v>
       </c>
@@ -13658,7 +13691,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" hidden="1">
       <c r="A434" s="1">
         <v>1</v>
       </c>
@@ -13681,7 +13714,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" hidden="1">
       <c r="A435" s="1">
         <v>1</v>
       </c>
@@ -13704,7 +13737,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" hidden="1">
       <c r="A436" s="1">
         <v>1</v>
       </c>
@@ -13727,7 +13760,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" hidden="1">
       <c r="A437" s="1">
         <v>1</v>
       </c>
@@ -13750,7 +13783,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" hidden="1">
       <c r="A438" s="1">
         <v>1</v>
       </c>
@@ -13793,7 +13826,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" hidden="1">
       <c r="A440" s="1">
         <v>1</v>
       </c>
@@ -13836,7 +13869,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" hidden="1">
       <c r="A442" s="1">
         <v>1</v>
       </c>
@@ -13859,7 +13892,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" hidden="1">
       <c r="A443" s="1">
         <v>1</v>
       </c>
@@ -13882,7 +13915,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" hidden="1">
       <c r="A444" s="1">
         <v>1</v>
       </c>
@@ -13905,7 +13938,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" hidden="1">
       <c r="A445" s="1">
         <v>1</v>
       </c>
@@ -13928,7 +13961,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" hidden="1">
       <c r="A446" s="1">
         <v>1</v>
       </c>
@@ -13971,7 +14004,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" hidden="1">
       <c r="A448" s="1">
         <v>1</v>
       </c>
@@ -13994,7 +14027,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" hidden="1">
       <c r="A449" s="1">
         <v>1</v>
       </c>
@@ -14017,7 +14050,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" hidden="1">
       <c r="A450" s="1">
         <v>1</v>
       </c>
@@ -14040,7 +14073,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" hidden="1">
       <c r="A451" s="1">
         <v>1</v>
       </c>
@@ -14063,7 +14096,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" hidden="1">
       <c r="A452" s="1">
         <v>1</v>
       </c>
@@ -14086,7 +14119,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" hidden="1">
       <c r="A453" s="1">
         <v>1</v>
       </c>
@@ -14109,7 +14142,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" hidden="1">
       <c r="A454" s="1">
         <v>1</v>
       </c>
@@ -14132,7 +14165,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" hidden="1">
       <c r="A455" s="1">
         <v>1</v>
       </c>
@@ -14155,7 +14188,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" hidden="1">
       <c r="A456" s="1">
         <v>1</v>
       </c>
@@ -14178,7 +14211,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" hidden="1">
       <c r="A457" s="1">
         <v>1</v>
       </c>
@@ -14201,7 +14234,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" hidden="1">
       <c r="A458" s="1">
         <v>1</v>
       </c>
@@ -14224,7 +14257,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" hidden="1">
       <c r="A459" s="1">
         <v>1</v>
       </c>
@@ -14247,7 +14280,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" hidden="1">
       <c r="A460" s="1">
         <v>1</v>
       </c>
@@ -14270,7 +14303,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" hidden="1">
       <c r="A461" s="1">
         <v>1</v>
       </c>
@@ -14293,7 +14326,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" hidden="1">
       <c r="A462" s="1">
         <v>1</v>
       </c>
@@ -14316,7 +14349,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" hidden="1">
       <c r="A463" s="1">
         <v>1</v>
       </c>
@@ -14339,7 +14372,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" hidden="1">
       <c r="A464" s="1">
         <v>1</v>
       </c>
@@ -14362,7 +14395,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" hidden="1">
       <c r="A465" s="1">
         <v>1</v>
       </c>
@@ -14385,7 +14418,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" hidden="1">
       <c r="A466" s="1">
         <v>1</v>
       </c>
@@ -14408,7 +14441,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" hidden="1">
       <c r="A467" s="1">
         <v>1</v>
       </c>
@@ -14431,7 +14464,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" hidden="1">
       <c r="A468" s="1">
         <v>1</v>
       </c>
@@ -14454,7 +14487,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" hidden="1">
       <c r="A469" s="1">
         <v>1</v>
       </c>
@@ -14477,7 +14510,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" hidden="1">
       <c r="A470" s="1">
         <v>1</v>
       </c>
@@ -14500,7 +14533,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" hidden="1">
       <c r="A471" s="1">
         <v>1</v>
       </c>
@@ -14523,7 +14556,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" hidden="1">
       <c r="A472" s="1">
         <v>1</v>
       </c>
@@ -14546,7 +14579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" hidden="1">
       <c r="A473" s="1">
         <v>1</v>
       </c>
@@ -14569,7 +14602,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" hidden="1">
       <c r="A474" s="1">
         <v>1</v>
       </c>
@@ -14592,7 +14625,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" hidden="1">
       <c r="A475" s="1">
         <v>1</v>
       </c>
@@ -14615,7 +14648,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" hidden="1">
       <c r="A476" s="1">
         <v>1</v>
       </c>
@@ -14638,7 +14671,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" hidden="1">
       <c r="A477" s="1">
         <v>1</v>
       </c>
@@ -14661,7 +14694,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" hidden="1">
       <c r="A478" s="1">
         <v>1</v>
       </c>
@@ -14684,7 +14717,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" hidden="1">
       <c r="A479" s="1">
         <v>1</v>
       </c>
@@ -14707,7 +14740,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" hidden="1">
       <c r="A480" s="1">
         <v>1</v>
       </c>
@@ -14730,7 +14763,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" hidden="1">
       <c r="A481" s="1">
         <v>1</v>
       </c>
@@ -14753,7 +14786,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" hidden="1">
       <c r="A482" s="1">
         <v>1</v>
       </c>
@@ -14776,7 +14809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" hidden="1">
       <c r="A483" s="1">
         <v>1</v>
       </c>
@@ -14799,7 +14832,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" hidden="1">
       <c r="A484" s="1">
         <v>1</v>
       </c>
@@ -14822,7 +14855,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" hidden="1">
       <c r="A485" s="1">
         <v>1</v>
       </c>
@@ -14845,7 +14878,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" hidden="1">
       <c r="A486" s="1">
         <v>1</v>
       </c>
@@ -14868,7 +14901,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" hidden="1">
       <c r="A487" s="1">
         <v>1</v>
       </c>
@@ -14891,7 +14924,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" hidden="1">
       <c r="A488" s="1">
         <v>1</v>
       </c>
@@ -14914,7 +14947,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" hidden="1">
       <c r="A489" s="1">
         <v>1</v>
       </c>
@@ -14937,7 +14970,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" hidden="1">
       <c r="A490" s="1">
         <v>1</v>
       </c>
@@ -14960,7 +14993,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" hidden="1">
       <c r="A491" s="1">
         <v>1</v>
       </c>
@@ -14983,7 +15016,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" hidden="1">
       <c r="A492" s="1">
         <v>1</v>
       </c>
@@ -15006,7 +15039,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" hidden="1">
       <c r="A493" s="1">
         <v>1</v>
       </c>
@@ -15029,7 +15062,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" hidden="1">
       <c r="A494" s="1">
         <v>1</v>
       </c>
@@ -15052,7 +15085,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" hidden="1">
       <c r="A495" s="1">
         <v>1</v>
       </c>
@@ -15075,7 +15108,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" hidden="1">
       <c r="A496" s="1">
         <v>1</v>
       </c>
@@ -15098,7 +15131,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" hidden="1">
       <c r="A497" s="1">
         <v>1</v>
       </c>
@@ -15121,7 +15154,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" hidden="1">
       <c r="A498" s="1">
         <v>1</v>
       </c>
@@ -15144,7 +15177,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" hidden="1">
       <c r="A499" s="1">
         <v>1</v>
       </c>
@@ -15167,7 +15200,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" hidden="1">
       <c r="A500" s="1">
         <v>1</v>
       </c>
@@ -15190,7 +15223,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" hidden="1">
       <c r="A501" s="1">
         <v>1</v>
       </c>
@@ -15213,7 +15246,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" hidden="1">
       <c r="A502" s="1">
         <v>1</v>
       </c>
@@ -15236,7 +15269,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" hidden="1">
       <c r="A503" s="1">
         <v>1</v>
       </c>
@@ -15259,7 +15292,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" hidden="1">
       <c r="A504" s="1">
         <v>1</v>
       </c>
@@ -15282,7 +15315,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" hidden="1">
       <c r="A505" s="1">
         <v>1</v>
       </c>
@@ -15305,7 +15338,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" hidden="1">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -15328,7 +15361,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" hidden="1">
       <c r="A507" s="1">
         <v>1</v>
       </c>
@@ -15351,7 +15384,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" hidden="1">
       <c r="A508" s="1">
         <v>1</v>
       </c>
@@ -15374,7 +15407,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" hidden="1">
       <c r="A509" s="1">
         <v>1</v>
       </c>
@@ -15397,7 +15430,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" hidden="1">
       <c r="A510" s="1">
         <v>1</v>
       </c>
@@ -15420,7 +15453,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" hidden="1">
       <c r="A511" s="1">
         <v>1</v>
       </c>
@@ -15443,7 +15476,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" hidden="1">
       <c r="A512" s="1">
         <v>1</v>
       </c>
@@ -15466,7 +15499,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" hidden="1">
       <c r="A513" s="1">
         <v>1</v>
       </c>
@@ -15489,7 +15522,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" hidden="1">
       <c r="A514" s="1">
         <v>1</v>
       </c>
@@ -15512,7 +15545,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" hidden="1">
       <c r="A515" s="1">
         <v>1</v>
       </c>
@@ -15535,7 +15568,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" hidden="1">
       <c r="A516" s="1">
         <v>1</v>
       </c>
@@ -15558,7 +15591,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" hidden="1">
       <c r="A517" s="1">
         <v>1</v>
       </c>
@@ -15581,7 +15614,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" hidden="1">
       <c r="A518" s="1">
         <v>1</v>
       </c>
@@ -15604,7 +15637,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" hidden="1">
       <c r="A519" s="1">
         <v>1</v>
       </c>
@@ -15627,7 +15660,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" hidden="1">
       <c r="A520" s="1">
         <v>1</v>
       </c>
@@ -15650,7 +15683,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" hidden="1">
       <c r="A521" s="1">
         <v>1</v>
       </c>
@@ -15673,7 +15706,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" hidden="1">
       <c r="A522" s="1">
         <v>1</v>
       </c>
@@ -15696,7 +15729,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" hidden="1">
       <c r="A523" s="1">
         <v>1</v>
       </c>
@@ -15719,7 +15752,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" hidden="1">
       <c r="A524" s="1">
         <v>1</v>
       </c>
@@ -15742,7 +15775,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" hidden="1">
       <c r="A525" s="1">
         <v>1</v>
       </c>
@@ -15765,7 +15798,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" hidden="1">
       <c r="A526" s="1">
         <v>1</v>
       </c>
@@ -15788,7 +15821,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" hidden="1">
       <c r="A527" s="1">
         <v>1</v>
       </c>
@@ -15811,7 +15844,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" hidden="1">
       <c r="A528" s="1">
         <v>1</v>
       </c>
@@ -15834,7 +15867,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" hidden="1">
       <c r="A529" s="1">
         <v>1</v>
       </c>
@@ -15857,7 +15890,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" hidden="1">
       <c r="A530" s="1">
         <v>1</v>
       </c>
@@ -15880,7 +15913,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" hidden="1">
       <c r="A531" s="1">
         <v>1</v>
       </c>
@@ -15903,7 +15936,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" hidden="1">
       <c r="A532" s="1">
         <v>1</v>
       </c>
@@ -15926,7 +15959,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" hidden="1">
       <c r="A533" s="1">
         <v>1</v>
       </c>
@@ -15949,7 +15982,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" hidden="1">
       <c r="A534" s="1">
         <v>1</v>
       </c>
@@ -15972,7 +16005,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" hidden="1">
       <c r="A535" s="1">
         <v>1</v>
       </c>
@@ -15995,7 +16028,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" hidden="1">
       <c r="A536" s="1">
         <v>1</v>
       </c>
@@ -16018,7 +16051,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" hidden="1">
       <c r="A537" s="1">
         <v>1</v>
       </c>
@@ -16041,7 +16074,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" hidden="1">
       <c r="A538" s="1">
         <v>1</v>
       </c>
@@ -16064,7 +16097,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" hidden="1">
       <c r="A539" s="1">
         <v>1</v>
       </c>
@@ -16087,7 +16120,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" hidden="1">
       <c r="A540" s="1">
         <v>1</v>
       </c>
@@ -16110,7 +16143,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" hidden="1">
       <c r="A541" s="1">
         <v>1</v>
       </c>
@@ -16133,7 +16166,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" hidden="1">
       <c r="A542" s="1">
         <v>1</v>
       </c>
@@ -16156,7 +16189,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" hidden="1">
       <c r="A543" s="1">
         <v>1</v>
       </c>
@@ -16179,7 +16212,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" hidden="1">
       <c r="A544" s="1">
         <v>1</v>
       </c>
@@ -16202,7 +16235,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" hidden="1">
       <c r="A545" s="1">
         <v>1</v>
       </c>
@@ -16225,7 +16258,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" hidden="1">
       <c r="A546" s="1">
         <v>1</v>
       </c>
@@ -16248,7 +16281,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" hidden="1">
       <c r="A547" s="1">
         <v>1</v>
       </c>
@@ -16271,7 +16304,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" hidden="1">
       <c r="A548" s="1">
         <v>1</v>
       </c>
@@ -16294,7 +16327,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" hidden="1">
       <c r="A549" s="1">
         <v>1</v>
       </c>
@@ -16317,7 +16350,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" hidden="1">
       <c r="A550" s="1">
         <v>1</v>
       </c>
@@ -16340,7 +16373,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" hidden="1">
       <c r="A551" s="1">
         <v>1</v>
       </c>
@@ -16363,7 +16396,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" hidden="1">
       <c r="A552" s="1">
         <v>1</v>
       </c>
@@ -16386,7 +16419,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" hidden="1">
       <c r="A553" s="1">
         <v>1</v>
       </c>
@@ -16409,7 +16442,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" hidden="1">
       <c r="A554" s="1">
         <v>1</v>
       </c>
@@ -16432,7 +16465,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" hidden="1">
       <c r="A555" s="1">
         <v>1</v>
       </c>
@@ -16455,7 +16488,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" hidden="1">
       <c r="A556" s="1">
         <v>1</v>
       </c>
@@ -16478,7 +16511,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" hidden="1">
       <c r="A557" s="1">
         <v>1</v>
       </c>
@@ -16501,7 +16534,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" hidden="1">
       <c r="A558" s="1">
         <v>1</v>
       </c>
@@ -16524,7 +16557,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" hidden="1">
       <c r="A559" s="1">
         <v>1</v>
       </c>
@@ -16547,7 +16580,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" hidden="1">
       <c r="A560" s="1">
         <v>1</v>
       </c>
@@ -16570,7 +16603,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:8" hidden="1">
       <c r="A561" s="1">
         <v>1</v>
       </c>
@@ -16593,7 +16626,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:8" hidden="1">
       <c r="A562" s="1">
         <v>1</v>
       </c>
@@ -16615,10 +16648,13 @@
       <c r="G562" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="563" spans="1:7">
+      <c r="H562" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" hidden="1">
       <c r="A563" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>575</v>
@@ -16639,9 +16675,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:8" hidden="1">
       <c r="A564" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>575</v>
@@ -16662,9 +16698,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:8" hidden="1">
       <c r="A565" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>575</v>
@@ -16685,9 +16721,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:8" hidden="1">
       <c r="A566" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>575</v>
@@ -16708,9 +16744,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:8" hidden="1">
       <c r="A567" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>575</v>
@@ -16731,9 +16767,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:8" hidden="1">
       <c r="A568" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>575</v>
@@ -16754,9 +16790,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:8" hidden="1">
       <c r="A569" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>575</v>
@@ -16777,9 +16813,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:8" hidden="1">
       <c r="A570" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>575</v>
@@ -16800,9 +16836,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:8" hidden="1">
       <c r="A571" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>575</v>
@@ -16823,9 +16859,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:8" hidden="1">
       <c r="A572" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>575</v>
@@ -16846,9 +16882,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:8" hidden="1">
       <c r="A573" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>575</v>
@@ -16869,7 +16905,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:8">
       <c r="A574" s="1">
         <v>1</v>
       </c>
@@ -16889,7 +16925,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:8">
       <c r="A575" s="1">
         <v>1</v>
       </c>
@@ -16909,7 +16945,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:8">
       <c r="A576" s="1">
         <v>1</v>
       </c>
@@ -17549,7 +17585,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" hidden="1">
       <c r="A608" s="1">
         <v>0</v>
       </c>
@@ -17578,7 +17614,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" hidden="1">
       <c r="A609" s="1">
         <v>0</v>
       </c>
@@ -17607,7 +17643,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" hidden="1">
       <c r="A610" s="1">
         <v>1</v>
       </c>
@@ -17650,7 +17686,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" hidden="1">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -17679,7 +17715,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" hidden="1">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -17708,7 +17744,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" hidden="1">
       <c r="A614" s="1">
         <v>0</v>
       </c>
@@ -17737,7 +17773,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" hidden="1">
       <c r="A615" s="1">
         <v>1</v>
       </c>
@@ -17760,13 +17796,16 @@
         <v>443</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" hidden="1">
       <c r="A616" s="1">
         <v>1</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>574</v>
       </c>
+      <c r="C616" s="1" t="s">
+        <v>1053</v>
+      </c>
       <c r="D616" s="1" t="s">
         <v>582</v>
       </c>
@@ -17780,13 +17819,16 @@
         <v>444</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" hidden="1">
       <c r="A617" s="1">
         <v>1</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>574</v>
       </c>
+      <c r="C617" s="1" t="s">
+        <v>1054</v>
+      </c>
       <c r="D617" s="1" t="s">
         <v>582</v>
       </c>
@@ -17800,7 +17842,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" hidden="1">
       <c r="A618" s="1">
         <v>1</v>
       </c>
@@ -17823,13 +17865,16 @@
         <v>446</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" hidden="1">
       <c r="A619" s="1">
         <v>1</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>574</v>
       </c>
+      <c r="C619" s="1" t="s">
+        <v>1055</v>
+      </c>
       <c r="D619" s="1" t="s">
         <v>582</v>
       </c>
@@ -17843,12 +17888,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" hidden="1">
       <c r="A620" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="D620" s="1" t="s">
         <v>582</v>
@@ -17863,12 +17911,15 @@
         <v>448</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" hidden="1">
       <c r="A621" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="D621" s="1" t="s">
         <v>582</v>
@@ -17883,12 +17934,15 @@
         <v>449</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" hidden="1">
       <c r="A622" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="D622" s="1" t="s">
         <v>582</v>
@@ -17903,12 +17957,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" hidden="1">
       <c r="A623" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="D623" s="1" t="s">
         <v>582</v>
@@ -17923,7 +17980,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" hidden="1">
       <c r="A624" s="1">
         <v>1</v>
       </c>
@@ -17946,7 +18003,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" hidden="1">
       <c r="A625" s="1">
         <v>1</v>
       </c>
@@ -17969,7 +18026,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" hidden="1">
       <c r="A626" s="1">
         <v>1</v>
       </c>
@@ -17992,7 +18049,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" hidden="1">
       <c r="A627" s="1">
         <v>1</v>
       </c>
@@ -18015,7 +18072,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" hidden="1">
       <c r="A628" s="1">
         <v>1</v>
       </c>
@@ -18038,7 +18095,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" hidden="1">
       <c r="A629" s="1">
         <v>1</v>
       </c>
@@ -18061,7 +18118,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" hidden="1">
       <c r="A630" s="1">
         <v>1</v>
       </c>
@@ -18084,7 +18141,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" hidden="1">
       <c r="A631" s="1">
         <v>1</v>
       </c>
@@ -18113,7 +18170,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" hidden="1">
       <c r="A632" s="1">
         <v>1</v>
       </c>
@@ -18142,7 +18199,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" hidden="1">
       <c r="A633" s="1">
         <v>1</v>
       </c>
@@ -18171,7 +18228,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" hidden="1">
       <c r="A634" s="1">
         <v>1</v>
       </c>
@@ -18194,7 +18251,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" hidden="1">
       <c r="A635" s="1">
         <v>1</v>
       </c>
@@ -18220,7 +18277,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" hidden="1">
       <c r="A636" s="1">
         <v>1</v>
       </c>
@@ -18243,7 +18300,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" hidden="1">
       <c r="A637" s="1">
         <v>1</v>
       </c>
@@ -18266,7 +18323,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" hidden="1">
       <c r="A638" s="1">
         <v>1</v>
       </c>
@@ -18289,7 +18346,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" hidden="1">
       <c r="A639" s="1">
         <v>1</v>
       </c>
@@ -18312,7 +18369,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" hidden="1">
       <c r="A640" s="1">
         <v>1</v>
       </c>
@@ -18335,7 +18392,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" hidden="1">
       <c r="A641" s="1">
         <v>1</v>
       </c>
@@ -18358,7 +18415,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" hidden="1">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -18375,7 +18432,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" hidden="1">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -18392,7 +18449,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" hidden="1">
       <c r="A644" s="1">
         <v>1</v>
       </c>
@@ -18418,7 +18475,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" hidden="1">
       <c r="A645" s="1">
         <v>1</v>
       </c>
@@ -18561,13 +18618,16 @@
         <v>479</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" hidden="1">
       <c r="A652" s="1">
         <v>1</v>
       </c>
       <c r="B652" s="2" t="s">
         <v>574</v>
       </c>
+      <c r="C652" s="1" t="s">
+        <v>1056</v>
+      </c>
       <c r="D652" s="1" t="s">
         <v>582</v>
       </c>
@@ -18581,13 +18641,16 @@
         <v>480</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" hidden="1">
       <c r="A653" s="1">
         <v>1</v>
       </c>
       <c r="B653" s="2" t="s">
         <v>574</v>
       </c>
+      <c r="C653" s="1" t="s">
+        <v>1057</v>
+      </c>
       <c r="D653" s="1" t="s">
         <v>582</v>
       </c>
@@ -18601,13 +18664,16 @@
         <v>481</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" hidden="1">
       <c r="A654" s="1">
         <v>1</v>
       </c>
       <c r="B654" s="2" t="s">
         <v>574</v>
       </c>
+      <c r="C654" s="1" t="s">
+        <v>1058</v>
+      </c>
       <c r="D654" s="1" t="s">
         <v>582</v>
       </c>
@@ -18621,13 +18687,16 @@
         <v>482</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" hidden="1">
       <c r="A655" s="1">
         <v>1</v>
       </c>
       <c r="B655" s="2" t="s">
         <v>574</v>
       </c>
+      <c r="C655" s="1" t="s">
+        <v>1059</v>
+      </c>
       <c r="D655" s="1" t="s">
         <v>582</v>
       </c>
@@ -18821,7 +18890,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" hidden="1">
       <c r="A665" s="1">
         <v>1</v>
       </c>
@@ -18844,7 +18913,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" hidden="1">
       <c r="A666" s="1">
         <v>1</v>
       </c>
@@ -18867,7 +18936,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" hidden="1">
       <c r="A667" s="1">
         <v>1</v>
       </c>
@@ -18890,7 +18959,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" hidden="1">
       <c r="A668" s="1">
         <v>1</v>
       </c>
@@ -18913,7 +18982,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" hidden="1">
       <c r="A669" s="1">
         <v>1</v>
       </c>
@@ -18936,7 +19005,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" hidden="1">
       <c r="A670" s="1">
         <v>1</v>
       </c>
@@ -18959,7 +19028,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" hidden="1">
       <c r="A671" s="1">
         <v>1</v>
       </c>
@@ -18982,7 +19051,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" hidden="1">
       <c r="A672" s="1">
         <v>1</v>
       </c>
@@ -19005,7 +19074,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" hidden="1">
       <c r="A673" s="1">
         <v>1</v>
       </c>
@@ -19028,7 +19097,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" hidden="1">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -19045,7 +19114,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" hidden="1">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -19062,7 +19131,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" hidden="1">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -19079,7 +19148,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" hidden="1">
       <c r="A677" s="1">
         <v>0</v>
       </c>
@@ -19096,7 +19165,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" hidden="1">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -19113,7 +19182,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" hidden="1">
       <c r="A679" s="1">
         <v>0</v>
       </c>
@@ -19130,7 +19199,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" hidden="1">
       <c r="A680" s="1">
         <v>0</v>
       </c>
@@ -19147,7 +19216,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" hidden="1">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -19164,7 +19233,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" hidden="1">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -19181,7 +19250,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" hidden="1">
       <c r="A683" s="1">
         <v>0</v>
       </c>
@@ -19198,7 +19267,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" hidden="1">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -19215,7 +19284,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" hidden="1">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -19232,7 +19301,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" hidden="1">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -19249,7 +19318,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" hidden="1">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -19266,7 +19335,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" hidden="1">
       <c r="A688" s="1">
         <v>0</v>
       </c>
@@ -19283,7 +19352,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" hidden="1">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -19300,7 +19369,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" hidden="1">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -19317,7 +19386,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" hidden="1">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -19334,7 +19403,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" hidden="1">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -19351,7 +19420,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" hidden="1">
       <c r="A693" s="1">
         <v>0</v>
       </c>
@@ -19368,7 +19437,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" hidden="1">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -19385,7 +19454,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" hidden="1">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -19402,7 +19471,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" hidden="1">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -19419,7 +19488,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" hidden="1">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -19436,7 +19505,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" hidden="1">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -19453,7 +19522,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" hidden="1">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -19470,7 +19539,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" hidden="1">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -19487,7 +19556,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" hidden="1">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -19504,7 +19573,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" hidden="1">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -19521,7 +19590,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" hidden="1">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -19538,7 +19607,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" hidden="1">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -19555,7 +19624,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" hidden="1">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -19572,7 +19641,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" hidden="1">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -19589,7 +19658,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" hidden="1">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -19606,7 +19675,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" hidden="1">
       <c r="A708" s="1">
         <v>0</v>
       </c>
@@ -19623,7 +19692,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" hidden="1">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -19640,7 +19709,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" hidden="1">
       <c r="A710" s="1">
         <v>0</v>
       </c>
@@ -19657,7 +19726,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" hidden="1">
       <c r="A711" s="1">
         <v>0</v>
       </c>
@@ -19674,7 +19743,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" hidden="1">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -19691,7 +19760,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" hidden="1">
       <c r="A713" s="1">
         <v>0</v>
       </c>
@@ -19708,7 +19777,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" hidden="1">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -19725,7 +19794,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" hidden="1">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -19742,7 +19811,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" hidden="1">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -19759,7 +19828,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" hidden="1">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -19776,7 +19845,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" hidden="1">
       <c r="A718" s="1">
         <v>0</v>
       </c>
@@ -19793,7 +19862,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" hidden="1">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -19810,7 +19879,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" hidden="1">
       <c r="A720" s="1">
         <v>0</v>
       </c>
@@ -19827,7 +19896,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" hidden="1">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -19844,7 +19913,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" hidden="1">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -19861,7 +19930,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" hidden="1">
       <c r="A723" s="1">
         <v>0</v>
       </c>
@@ -19878,7 +19947,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" hidden="1">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -19895,7 +19964,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" hidden="1">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -19912,7 +19981,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" hidden="1">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -19929,7 +19998,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" hidden="1">
       <c r="A727" s="1">
         <v>0</v>
       </c>
@@ -19946,7 +20015,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" hidden="1">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -19963,7 +20032,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" hidden="1">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -19980,7 +20049,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" hidden="1">
       <c r="A730" s="1">
         <v>0</v>
       </c>
@@ -19997,7 +20066,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" hidden="1">
       <c r="A731" s="1">
         <v>0</v>
       </c>
@@ -20014,7 +20083,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" hidden="1">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -20031,7 +20100,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" hidden="1">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -20048,7 +20117,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" hidden="1">
       <c r="A734" s="1">
         <v>0</v>
       </c>
@@ -20065,7 +20134,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" hidden="1">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -20082,7 +20151,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" hidden="1">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -20099,7 +20168,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" hidden="1">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -20116,7 +20185,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" hidden="1">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -20133,7 +20202,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" hidden="1">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -20150,7 +20219,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" hidden="1">
       <c r="A740" s="1">
         <v>0</v>
       </c>
@@ -20167,7 +20236,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" hidden="1">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -20184,7 +20253,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" hidden="1">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -20201,7 +20270,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" hidden="1">
       <c r="A743" s="1">
         <v>0</v>
       </c>
@@ -20219,7 +20288,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F743" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F743" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="事件"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Videos\TTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C9795-046F-4FC0-A94D-BF025408B4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7539748-64DA-4EEF-8831-018B51A30DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1112">
   <si>
     <t>0x0</t>
   </si>
@@ -3662,6 +3662,214 @@
   </si>
   <si>
     <t>寶籙符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄玄靈藥經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火摺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏寶圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清淨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鑰匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滿堂春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多心果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馨香草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化顏粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡樹汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沁心蘭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臉模子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜明珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹葉青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫸木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜光花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人皮面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半張絲製手帕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼齒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金葉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特製迷藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚寒特效藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉瓶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南天藏寶圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑闇線蛇毒液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕容九肚兜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定心珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閻王中門鑰匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崖洞寶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘傳本草綱目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨嵋藥譜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳鑾金釵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禍福相倚袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地伏法環</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托塔天魔鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥鬼鎖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檀香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絕世墨寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精工玉琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濃縮毒藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海貝棋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明玉功詳解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4043,8 +4251,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C583" sqref="C583"/>
+    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
+      <selection activeCell="I648" sqref="I648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13813,6 +14021,9 @@
       <c r="B439" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C439" s="1" t="s">
+        <v>1060</v>
+      </c>
       <c r="D439" s="1" t="s">
         <v>582</v>
       </c>
@@ -13856,6 +14067,9 @@
       <c r="B441" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C441" s="1" t="s">
+        <v>1061</v>
+      </c>
       <c r="D441" s="1" t="s">
         <v>582</v>
       </c>
@@ -13990,6 +14204,9 @@
       </c>
       <c r="B447" s="1" t="s">
         <v>576</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1062</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>582</v>
@@ -16912,6 +17129,9 @@
       <c r="B574" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C574" s="1" t="s">
+        <v>1063</v>
+      </c>
       <c r="D574" s="1" t="s">
         <v>582</v>
       </c>
@@ -16932,6 +17152,9 @@
       <c r="B575" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C575" s="1" t="s">
+        <v>1064</v>
+      </c>
       <c r="D575" s="1" t="s">
         <v>582</v>
       </c>
@@ -16952,6 +17175,9 @@
       <c r="B576" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C576" s="1" t="s">
+        <v>1065</v>
+      </c>
       <c r="D576" s="1" t="s">
         <v>582</v>
       </c>
@@ -16972,6 +17198,9 @@
       <c r="B577" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C577" s="1" t="s">
+        <v>1066</v>
+      </c>
       <c r="D577" s="1" t="s">
         <v>582</v>
       </c>
@@ -16992,6 +17221,9 @@
       <c r="B578" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C578" s="1" t="s">
+        <v>1067</v>
+      </c>
       <c r="D578" s="1" t="s">
         <v>582</v>
       </c>
@@ -17012,6 +17244,9 @@
       <c r="B579" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C579" s="1" t="s">
+        <v>1068</v>
+      </c>
       <c r="D579" s="1" t="s">
         <v>582</v>
       </c>
@@ -17032,6 +17267,9 @@
       <c r="B580" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C580" s="1" t="s">
+        <v>1069</v>
+      </c>
       <c r="D580" s="1" t="s">
         <v>582</v>
       </c>
@@ -17052,6 +17290,9 @@
       <c r="B581" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C581" s="1" t="s">
+        <v>1070</v>
+      </c>
       <c r="D581" s="1" t="s">
         <v>582</v>
       </c>
@@ -17072,6 +17313,9 @@
       <c r="B582" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C582" s="1" t="s">
+        <v>1071</v>
+      </c>
       <c r="D582" s="1" t="s">
         <v>582</v>
       </c>
@@ -17092,6 +17336,9 @@
       <c r="B583" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C583" s="1" t="s">
+        <v>1072</v>
+      </c>
       <c r="D583" s="1" t="s">
         <v>582</v>
       </c>
@@ -17112,6 +17359,9 @@
       <c r="B584" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C584" s="1" t="s">
+        <v>1073</v>
+      </c>
       <c r="D584" s="1" t="s">
         <v>582</v>
       </c>
@@ -17132,6 +17382,9 @@
       <c r="B585" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C585" s="1" t="s">
+        <v>1074</v>
+      </c>
       <c r="D585" s="1" t="s">
         <v>582</v>
       </c>
@@ -17152,6 +17405,9 @@
       <c r="B586" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C586" s="1" t="s">
+        <v>1075</v>
+      </c>
       <c r="D586" s="1" t="s">
         <v>582</v>
       </c>
@@ -17172,6 +17428,9 @@
       <c r="B587" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C587" s="1" t="s">
+        <v>1076</v>
+      </c>
       <c r="D587" s="1" t="s">
         <v>582</v>
       </c>
@@ -17192,6 +17451,9 @@
       <c r="B588" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C588" s="1" t="s">
+        <v>1077</v>
+      </c>
       <c r="D588" s="1" t="s">
         <v>582</v>
       </c>
@@ -17212,6 +17474,9 @@
       <c r="B589" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C589" s="1" t="s">
+        <v>1078</v>
+      </c>
       <c r="D589" s="1" t="s">
         <v>582</v>
       </c>
@@ -17232,6 +17497,9 @@
       <c r="B590" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C590" s="1" t="s">
+        <v>1079</v>
+      </c>
       <c r="D590" s="1" t="s">
         <v>582</v>
       </c>
@@ -17252,6 +17520,9 @@
       <c r="B591" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C591" s="1" t="s">
+        <v>1080</v>
+      </c>
       <c r="D591" s="1" t="s">
         <v>582</v>
       </c>
@@ -17272,6 +17543,9 @@
       <c r="B592" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C592" s="1" t="s">
+        <v>1081</v>
+      </c>
       <c r="D592" s="1" t="s">
         <v>582</v>
       </c>
@@ -17292,6 +17566,9 @@
       <c r="B593" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C593" s="1" t="s">
+        <v>1082</v>
+      </c>
       <c r="D593" s="1" t="s">
         <v>582</v>
       </c>
@@ -17312,6 +17589,9 @@
       <c r="B594" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C594" s="1" t="s">
+        <v>1083</v>
+      </c>
       <c r="D594" s="1" t="s">
         <v>582</v>
       </c>
@@ -17332,6 +17612,9 @@
       <c r="B595" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C595" s="1" t="s">
+        <v>1084</v>
+      </c>
       <c r="D595" s="1" t="s">
         <v>582</v>
       </c>
@@ -17352,6 +17635,9 @@
       <c r="B596" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C596" s="1" t="s">
+        <v>1085</v>
+      </c>
       <c r="D596" s="1" t="s">
         <v>582</v>
       </c>
@@ -17372,6 +17658,9 @@
       <c r="B597" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C597" s="1" t="s">
+        <v>1086</v>
+      </c>
       <c r="D597" s="1" t="s">
         <v>582</v>
       </c>
@@ -17392,6 +17681,9 @@
       <c r="B598" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C598" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="D598" s="1" t="s">
         <v>582</v>
       </c>
@@ -17412,6 +17704,9 @@
       <c r="B599" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C599" s="1" t="s">
+        <v>1088</v>
+      </c>
       <c r="D599" s="1" t="s">
         <v>582</v>
       </c>
@@ -17432,6 +17727,9 @@
       <c r="B600" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C600" s="1" t="s">
+        <v>1089</v>
+      </c>
       <c r="D600" s="1" t="s">
         <v>582</v>
       </c>
@@ -17452,6 +17750,9 @@
       <c r="B601" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C601" s="1" t="s">
+        <v>1090</v>
+      </c>
       <c r="D601" s="1" t="s">
         <v>582</v>
       </c>
@@ -17472,6 +17773,9 @@
       <c r="B602" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C602" s="1" t="s">
+        <v>1091</v>
+      </c>
       <c r="D602" s="1" t="s">
         <v>582</v>
       </c>
@@ -17492,6 +17796,9 @@
       <c r="B603" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C603" s="1" t="s">
+        <v>1092</v>
+      </c>
       <c r="D603" s="1" t="s">
         <v>582</v>
       </c>
@@ -17512,6 +17819,9 @@
       <c r="B604" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C604" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="D604" s="1" t="s">
         <v>582</v>
       </c>
@@ -17532,6 +17842,9 @@
       <c r="B605" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C605" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="D605" s="1" t="s">
         <v>582</v>
       </c>
@@ -17552,6 +17865,9 @@
       <c r="B606" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C606" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="D606" s="1" t="s">
         <v>582</v>
       </c>
@@ -17571,6 +17887,9 @@
       </c>
       <c r="B607" s="1" t="s">
         <v>576</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1096</v>
       </c>
       <c r="D607" s="1" t="s">
         <v>582</v>
@@ -17673,6 +17992,9 @@
       <c r="B611" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C611" s="1" t="s">
+        <v>1097</v>
+      </c>
       <c r="D611" s="1" t="s">
         <v>582</v>
       </c>
@@ -18505,6 +18827,9 @@
       <c r="B646" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C646" s="1" t="s">
+        <v>1098</v>
+      </c>
       <c r="D646" s="1" t="s">
         <v>582</v>
       </c>
@@ -18525,6 +18850,9 @@
       <c r="B647" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C647" s="1" t="s">
+        <v>1099</v>
+      </c>
       <c r="D647" s="1" t="s">
         <v>582</v>
       </c>
@@ -18545,6 +18873,9 @@
       <c r="B648" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C648" s="1" t="s">
+        <v>1100</v>
+      </c>
       <c r="D648" s="1" t="s">
         <v>582</v>
       </c>
@@ -18565,6 +18896,9 @@
       <c r="B649" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C649" s="1" t="s">
+        <v>1101</v>
+      </c>
       <c r="D649" s="1" t="s">
         <v>582</v>
       </c>
@@ -18585,6 +18919,9 @@
       <c r="B650" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C650" s="1" t="s">
+        <v>1102</v>
+      </c>
       <c r="D650" s="1" t="s">
         <v>582</v>
       </c>
@@ -18717,6 +19054,9 @@
       <c r="B656" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C656" s="1" t="s">
+        <v>1103</v>
+      </c>
       <c r="D656" s="1" t="s">
         <v>582</v>
       </c>
@@ -18737,6 +19077,9 @@
       <c r="B657" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C657" s="1" t="s">
+        <v>1104</v>
+      </c>
       <c r="D657" s="1" t="s">
         <v>582</v>
       </c>
@@ -18757,6 +19100,9 @@
       <c r="B658" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C658" s="1" t="s">
+        <v>1105</v>
+      </c>
       <c r="D658" s="1" t="s">
         <v>582</v>
       </c>
@@ -18777,6 +19123,9 @@
       <c r="B659" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C659" s="1" t="s">
+        <v>1106</v>
+      </c>
       <c r="D659" s="1" t="s">
         <v>582</v>
       </c>
@@ -18797,6 +19146,9 @@
       <c r="B660" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C660" s="1" t="s">
+        <v>1107</v>
+      </c>
       <c r="D660" s="1" t="s">
         <v>582</v>
       </c>
@@ -18817,6 +19169,9 @@
       <c r="B661" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C661" s="1" t="s">
+        <v>1108</v>
+      </c>
       <c r="D661" s="1" t="s">
         <v>582</v>
       </c>
@@ -18837,6 +19192,9 @@
       <c r="B662" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C662" s="3" t="s">
+        <v>1109</v>
+      </c>
       <c r="D662" s="1" t="s">
         <v>582</v>
       </c>
@@ -18857,6 +19215,9 @@
       <c r="B663" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="C663" s="1" t="s">
+        <v>1110</v>
+      </c>
       <c r="D663" s="1" t="s">
         <v>582</v>
       </c>
@@ -18876,6 +19237,9 @@
       </c>
       <c r="B664" s="1" t="s">
         <v>576</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>1111</v>
       </c>
       <c r="D664" s="1" t="s">
         <v>582</v>
